--- a/data/hotels_by_city/Houston/Houston_shard_491.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_491.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55879-d277887-Reviews-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Motel-6-Galveston-Seawall.h922429.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1049 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r532123662-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>277887</t>
+  </si>
+  <si>
+    <t>532123662</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Horrendous</t>
+  </si>
+  <si>
+    <t>When we first arrived the owners where rude and playing on their phones while checking us in. Then to top it off they tried to overcharge me $15. I would never recommend this motel to anyone not even people I hate. Will never come here again!</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r523125847-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>523125847</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Motel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 2 nights. Due to Hurricane Harvey all the hotels were full. We booked this almost a year in advance, so we already had reservations. We had arrived late, and when we got in the room, it smelled of smoke and had a musty odor. The container for ice was dirty, the sink counter was dirty, and the plastic cups had dust on them. I went down to get a new container for ice, they didn't have anymore. I got new cups and some ice. (Only ice machine is in the lobby).The next morning, we saw cigarette burns on the sheets. We went down to speak to the manager, his answer was that a big part of their sheets have cigarette burns on them. I asked if we could get the room cleaned and sheets with no holes, he said he would do his best. My husband had shaved, so there was hair in the sink.When we returned later, the only thing done to our room was clean sheets. They tried to blame the hurricane victims, which made me even more mad. I think they just don't have enough help or don't care.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 2 nights. Due to Hurricane Harvey all the hotels were full. We booked this almost a year in advance, so we already had reservations. We had arrived late, and when we got in the room, it smelled of smoke and had a musty odor. The container for ice was dirty, the sink counter was dirty, and the plastic cups had dust on them. I went down to get a new container for ice, they didn't have anymore. I got new cups and some ice. (Only ice machine is in the lobby).The next morning, we saw cigarette burns on the sheets. We went down to speak to the manager, his answer was that a big part of their sheets have cigarette burns on them. I asked if we could get the room cleaned and sheets with no holes, he said he would do his best. My husband had shaved, so there was hair in the sink.When we returned later, the only thing done to our room was clean sheets. They tried to blame the hurricane victims, which made me even more mad. I think they just don't have enough help or don't care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r506455372-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>506455372</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Great place for the price. Stay during the week the prices are cheaper. On Friday the price is almost double and on weekends almost triple. Only a block from the beach. The staff is super nice. The breakfast consist of waffles, toast, oatmeal, cinnamon rolls, fruit and a variety of drinks. The area where you eat is really clean.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r499365039-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>499365039</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Cheap Place to stay for a weekend visit</t>
+  </si>
+  <si>
+    <t>This place was nice for a weekend not a 5 star hotel. You get what you pay for the rooms were good enough for a place to put your head to sleep. Shower and bathroom had running water with complimentary soap. Cable TV no free WiFi you have to pay to get. Ice machines, washers and dryers available for uses and vending machines for late snacks. There is also a small pool which is maintained very well. Best place to stay for the price on a island saves you money to spend on other things if you have a big family. The front desk people are very nice and accommodating. Cleaning staff are very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>This place was nice for a weekend not a 5 star hotel. You get what you pay for the rooms were good enough for a place to put your head to sleep. Shower and bathroom had running water with complimentary soap. Cable TV no free WiFi you have to pay to get. Ice machines, washers and dryers available for uses and vending machines for late snacks. There is also a small pool which is maintained very well. Best place to stay for the price on a island saves you money to spend on other things if you have a big family. The front desk people are very nice and accommodating. Cleaning staff are very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r480340651-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>480340651</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>They left the light on for us.</t>
+  </si>
+  <si>
+    <t>I was taught to always say something positive to start a conversation. Motel 6 Seawall did indeed "leave the light on for us." Other positives were the motel's closeness to the beach (a block), easy access to a Randall's grocery with a Starbucks, and an historic cemetery just behind the building filled with the dead from the Galveston Flood of 1900.Beyond that, the bed sheets were gritty (sand, I hope), the staff was rude, the management tone deaf to complints, the exterior was littered with trash and showed signs on poor maintenance, and 'free' would have been too much to pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Galveston - Seawall, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>I was taught to always say something positive to start a conversation. Motel 6 Seawall did indeed "leave the light on for us." Other positives were the motel's closeness to the beach (a block), easy access to a Randall's grocery with a Starbucks, and an historic cemetery just behind the building filled with the dead from the Galveston Flood of 1900.Beyond that, the bed sheets were gritty (sand, I hope), the staff was rude, the management tone deaf to complints, the exterior was littered with trash and showed signs on poor maintenance, and 'free' would have been too much to pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r480051153-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>480051153</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Place was nice room was Aweful portion of floor was wet from air conditioner complained to front desk was sorta fix then it dripped all night making it even wetter complained on checkout desk clerk  was not concerned.Locaton was fairMoreShow less</t>
+  </si>
+  <si>
+    <t>Place was nice room was Aweful portion of floor was wet from air conditioner complained to front desk was sorta fix then it dripped all night making it even wetter complained on checkout desk clerk  was not concerned.Locaton was fairMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r447878833-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>447878833</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>DONT STAY THERE</t>
+  </si>
+  <si>
+    <t>the bed linen had not been changed, it had brown stains on it,,floor boards around the room were peeling paint all over the floor, remote control didnt work, no pillow cases,  outside in the parking lot was littered everywhere with trash.  i requested a room with  beds to have room to lay things out,,the manager suspiciously questioned me as though i was sneaking other people in.  The mattress on both beds were terribly stained and smelled.  i had a pet, and he repeatedly told me the pet policy and had me sign a statement that i knew the pet policy.  I DO NOT RECOMMEND THIS MOTEL...I only stayed there after requesting a linen change on the bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>the bed linen had not been changed, it had brown stains on it,,floor boards around the room were peeling paint all over the floor, remote control didnt work, no pillow cases,  outside in the parking lot was littered everywhere with trash.  i requested a room with  beds to have room to lay things out,,the manager suspiciously questioned me as though i was sneaking other people in.  The mattress on both beds were terribly stained and smelled.  i had a pet, and he repeatedly told me the pet policy and had me sign a statement that i knew the pet policy.  I DO NOT RECOMMEND THIS MOTEL...I only stayed there after requesting a linen change on the bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r445712648-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>445712648</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Lousy service, rude management</t>
+  </si>
+  <si>
+    <t>We booked two months in advance requesting 8 rooms.  We were a large group just laying over to load the cruise ship in the morning.  When we got there they had only reserved us one room.  The management was very rude and more or less told too bad, motel was full, would not even try to find us another motel.  From reading other reviews don't think we missed out on anything.  Fortunately we were early enough to find another motel. Felt like they deliberately gave our rooms away because we got discount rates for a large booking and they could get more money.  Very rude.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r437244058-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>437244058</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrendous &amp; Deceptive advertisement </t>
+  </si>
+  <si>
+    <t>I booked my room as a 2 queen deluxe room 2months prior to my stay directly with Motel 6.com. Upon my arrival I was told there wasn't anything other than a king bed room with pullout full sofa sleeper or the same without a locking door or a/c unit. After showing my reservation to the clerk she said she would give me another guests reserved room since they weren't coming in until later. Even though I am disabled and they don't have an elevator I had no other alternative but to take the room she offered. Needless to say we would have been better off sleeping in my car! The room was dirty, no fire alarm &amp; exposed wires, beds were hard and mattresses were horribly used, pillows were flat, towels were pint sized &amp; rough, bugs (flying grasshoppers &amp; waterbugs), and to top everything off the front staff in the morning was rude &amp; completely disrespectful. I called the Motel 6 customer service line and got the run around because this location is a franchise, which was completely unacceptable. Never again, not even for 1 night will I recommend or book anything linked to the Motel 6 name! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I booked my room as a 2 queen deluxe room 2months prior to my stay directly with Motel 6.com. Upon my arrival I was told there wasn't anything other than a king bed room with pullout full sofa sleeper or the same without a locking door or a/c unit. After showing my reservation to the clerk she said she would give me another guests reserved room since they weren't coming in until later. Even though I am disabled and they don't have an elevator I had no other alternative but to take the room she offered. Needless to say we would have been better off sleeping in my car! The room was dirty, no fire alarm &amp; exposed wires, beds were hard and mattresses were horribly used, pillows were flat, towels were pint sized &amp; rough, bugs (flying grasshoppers &amp; waterbugs), and to top everything off the front staff in the morning was rude &amp; completely disrespectful. I called the Motel 6 customer service line and got the run around because this location is a franchise, which was completely unacceptable. Never again, not even for 1 night will I recommend or book anything linked to the Motel 6 name! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r381251435-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>381251435</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here!!! The Worst!!</t>
+  </si>
+  <si>
+    <t>Bathroom smelled like urine. Worker offered to transfer to another room which was outdated and the sofa in that room looked like death. When I pulled back the comforter, the other blanket was full of holes. We ended up cleaning the bathroom ourself and the urine stench was still strong. We were unable to control thermostat on AC. We could only turn it up. It wouldn't turn down or the heat would come on. The towels and wash cloths were very hard and rough on the skin. The iron was filthy. When I talked to the manager that morning, he denied the urine smell and denied any type of apology or compensation for our horrific experience. He only supplied excuses just as the worker did the night before.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Bathroom smelled like urine. Worker offered to transfer to another room which was outdated and the sofa in that room looked like death. When I pulled back the comforter, the other blanket was full of holes. We ended up cleaning the bathroom ourself and the urine stench was still strong. We were unable to control thermostat on AC. We could only turn it up. It wouldn't turn down or the heat would come on. The towels and wash cloths were very hard and rough on the skin. The iron was filthy. When I talked to the manager that morning, he denied the urine smell and denied any type of apology or compensation for our horrific experience. He only supplied excuses just as the worker did the night before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r379381351-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>379381351</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Great Place and allows pets</t>
+  </si>
+  <si>
+    <t>The staff was very friendly.  This hotel is located close to Walmart, gas stations, and some restaurants.  Easy to find.  Only one block from the beach.  It also has a pool.  Room was large, clean, and comfortable.  Quiet area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r379063944-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>379063944</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Horrible Experience..</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER!!! After paying $100 night over the Memorial Day weekend we had to leave a day early. This hotel is completely disgusting due to management and housekeeping. Housekeeping did nothing for our rooms the first night and the following day we requested new towels and rooms to be cleaned. Gone all day and returned to 1 of our 2 rooms at 4pm just being vacuumed but nothing picked up just vacuumed around. we pulled sheets off bed and requested they be changed due to a few stains and they put them right back on. Pictures taken so we knew they did that.. They did not replace our towels or TP (4pm after beach we wanted a shower and use the bathroom but couldn't) so we asked for this and questioned the cleaning of the room since there was nothing done to one of them and only quick vacuum to the other and they argued and ordered us to leave. We asked if we could just get the sheets and towels and TP and do ourselves so we could finish our vacation, and were told we had to check out now... I have traveled for work pleasure etc. and never been treated like this ever. I wasn't expecting fine hotel style but at least basic housekeeping... Very Disgusting and I would take the Motel 6 name off if I was in charge in corporate. Rather Sleep in my carMoreShow less</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER!!! After paying $100 night over the Memorial Day weekend we had to leave a day early. This hotel is completely disgusting due to management and housekeeping. Housekeeping did nothing for our rooms the first night and the following day we requested new towels and rooms to be cleaned. Gone all day and returned to 1 of our 2 rooms at 4pm just being vacuumed but nothing picked up just vacuumed around. we pulled sheets off bed and requested they be changed due to a few stains and they put them right back on. Pictures taken so we knew they did that.. They did not replace our towels or TP (4pm after beach we wanted a shower and use the bathroom but couldn't) so we asked for this and questioned the cleaning of the room since there was nothing done to one of them and only quick vacuum to the other and they argued and ordered us to leave. We asked if we could just get the sheets and towels and TP and do ourselves so we could finish our vacation, and were told we had to check out now... I have traveled for work pleasure etc. and never been treated like this ever. I wasn't expecting fine hotel style but at least basic housekeeping... Very Disgusting and I would take the Motel 6 name off if I was in charge in corporate. Rather Sleep in my carMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r356829129-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>356829129</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>This motel Was good, not terrible, small rooms, but were clean and free of bugs, but ok there was nice pool, there was no complimentary breakfast, did have free parking. Was very quiet Would recommend this to others with or without children</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r342411723-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>342411723</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>First did not expect much from a motel 6 but the picture of the room on companies website is not the room you get !! They have not been updated !!! 2nd right next door to our room was a family sadly living in the hotel w a hot plate :0( very sad ...I was scared to go in the parking lot at night ...basketball goal in parking lot for kid is just strange and again sad..this motel 6 is on central street in Galveston ...WILL never stay here again!!! Pool is locked up for some reason</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r339531032-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>339531032</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Worse hotel ever!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smelled like the sewer.  Do NOT stay here under any circumstance.  Trust me, you will be disappointed.  The pictures looked ok on the website but they must have taken the pics 20 years ago. I wish we had done a little more research and cancelled after seeing the rooms. Bad decision to stay. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r310816025-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>310816025</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Worse than a mexican jail</t>
+  </si>
+  <si>
+    <t>Get your shots up to date before u stay here. This was honestly the worst place I've ever stayed at.89$ a night was 88$ too much. Everything was old ,dirty, stained ,stinky ,and I'm fairly sure the site of many a crime sceneIts the anus of hotels.You were warned.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r307961502-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>307961502</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Don't touch with a barge pole.</t>
+  </si>
+  <si>
+    <t>We are travelling around Texas and was looking for somewhere to stay for the night. A few hotels we tried were full so was pleased to get two rooms or so we thought. The first two rooms were smoking rooms (we forgot you had to request no smoking) and as I opened the door the smell hit me. We went straight back to reception and the guy behind reception offered us two non smoking rooms. They were a little better but the smell was horrendous in them too. We went back to reception and got a full refund and made a hasty retreat. The whole place is dirty and run down and in desperate need of renovation. I wouldn't let my dog stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We are travelling around Texas and was looking for somewhere to stay for the night. A few hotels we tried were full so was pleased to get two rooms or so we thought. The first two rooms were smoking rooms (we forgot you had to request no smoking) and as I opened the door the smell hit me. We went straight back to reception and the guy behind reception offered us two non smoking rooms. They were a little better but the smell was horrendous in them too. We went back to reception and got a full refund and made a hasty retreat. The whole place is dirty and run down and in desperate need of renovation. I wouldn't let my dog stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r303252282-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>303252282</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>The no-tell-motel</t>
+  </si>
+  <si>
+    <t>This place does not even deserve a terrible rating it is disgusting.  Do Not stay at this hotel.  It will ruin your trip.  As you can see from the pictures enclosed the shower curtain was dirty and stained with discoloration.  The sink stopped up with a simple hand washing and took hours to drain.  The blanket on the bed had a huge burn in it.  The refrigerator was so iced up the door would not close, therefore, we could not utilize it.  And, last but not least the lamp by the bed had a hole in the lamp shade.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r292819671-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>292819671</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worse smelly dirty </t>
+  </si>
+  <si>
+    <t>Wifi is sooo slow, called front desk &amp; said it may be my device,but I have more than 4 devices with me the wifi is not working ... it works so slow then it just stops!!! The room smells like URINE and they tried to cover up the dirty toilet with spray paint. It did not dry properly  and white paint got stuck on my 5 year olds butt. There is pink mold around the shower head. The carpet is filthy... the rooms are not properly cleaned. There is rust on the appliances. Bubble butt  t.v like the 90s. Iit is not worth the money... will never  stay here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Wifi is sooo slow, called front desk &amp; said it may be my device,but I have more than 4 devices with me the wifi is not working ... it works so slow then it just stops!!! The room smells like URINE and they tried to cover up the dirty toilet with spray paint. It did not dry properly  and white paint got stuck on my 5 year olds butt. There is pink mold around the shower head. The carpet is filthy... the rooms are not properly cleaned. There is rust on the appliances. Bubble butt  t.v like the 90s. Iit is not worth the money... will never  stay here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r290261884-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>290261884</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Way Over priced... nasty!</t>
+  </si>
+  <si>
+    <t>Please know, I've never written a bad review and it hurts my heart to do so now. We paid $182.00 per night (Thank God it was only ONE). You have 20 minutes to LOOK at your room AFTER check in! Luckily my daughter DID and the room was horrible. It had mold spots on wall, smelled horrendous, nasty... as I have COPD, my daughter asked for a refund! The woman told us they never turn the AC unit on until arrival and absolutely NO MONETARY REFUNDS, they ONLY offer another room. We didn't have a choice but to settle for another room, was slightly better, but the room was not clean, old appliances, no coffee maker.. To reserve room, we used a CC, but paid CASH upon arrival..this being before seeing the room. The following business day, our bank called and the motel tried to run the CC for $182 which our bank denied the motel since it was out of state and was suspicious. This is one hotel in which I would never recommend to anyone.... (I have photo's but choose not to display)MoreShow less</t>
+  </si>
+  <si>
+    <t>Please know, I've never written a bad review and it hurts my heart to do so now. We paid $182.00 per night (Thank God it was only ONE). You have 20 minutes to LOOK at your room AFTER check in! Luckily my daughter DID and the room was horrible. It had mold spots on wall, smelled horrendous, nasty... as I have COPD, my daughter asked for a refund! The woman told us they never turn the AC unit on until arrival and absolutely NO MONETARY REFUNDS, they ONLY offer another room. We didn't have a choice but to settle for another room, was slightly better, but the room was not clean, old appliances, no coffee maker.. To reserve room, we used a CC, but paid CASH upon arrival..this being before seeing the room. The following business day, our bank called and the motel tried to run the CC for $182 which our bank denied the motel since it was out of state and was suspicious. This is one hotel in which I would never recommend to anyone.... (I have photo's but choose not to display)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r288956370-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>288956370</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>Wanted just a nice overnight room for my wife and her sister so they could enjoy the beach.  Their plans were sidetracked by a tropical storm but this hotel charged them anyway.  They have not as of yet refunded our money and they have not been very helpful.  Go somewhere else if you want customer service.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r272855309-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>272855309</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>Don't waste your money!!!!</t>
+  </si>
+  <si>
+    <t>Horrible! For our $200 a night stay we got the following: an overwhelming odor of mildew and seawater upon opening the door. Killed a cockroach in the bathroom less than 10 minutes after we arrived. Microwave door would not shut due to the upper casing having been pried upward. Refrigerator was broken and wouldn't turn on. NO coffee pot, NO alarm clock, a 1990s box TV, 2 towels, 2 tiny bars of soap and 2 tiny packets of shampoo. (This for a room that is supposed to accommodate 5 people????). No toilet seat cover and killed 2 more cockroaches before 10 pm. After taking showers, the only 2 towels were like sandpaper!!! I wouldn't have used them even to dry off my dog!!! Next morning? No continental breakfast, no coffee, only locked doors. Finally at 7:30 doors were open. On the breakfast counter? A small pitcher of orange juice and about 20 prepackaged bread looking things that weren't big enough to satisfy a 2 yr old. Oh and did I mention, even after spending over $200 for this dive, they made us pay a $5 deposit for one room key???? HORRIBLE. I've stayed at motels for $59 a night that were insanely better than this roach infested sleaze hole.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Horrible! For our $200 a night stay we got the following: an overwhelming odor of mildew and seawater upon opening the door. Killed a cockroach in the bathroom less than 10 minutes after we arrived. Microwave door would not shut due to the upper casing having been pried upward. Refrigerator was broken and wouldn't turn on. NO coffee pot, NO alarm clock, a 1990s box TV, 2 towels, 2 tiny bars of soap and 2 tiny packets of shampoo. (This for a room that is supposed to accommodate 5 people????). No toilet seat cover and killed 2 more cockroaches before 10 pm. After taking showers, the only 2 towels were like sandpaper!!! I wouldn't have used them even to dry off my dog!!! Next morning? No continental breakfast, no coffee, only locked doors. Finally at 7:30 doors were open. On the breakfast counter? A small pitcher of orange juice and about 20 prepackaged bread looking things that weren't big enough to satisfy a 2 yr old. Oh and did I mention, even after spending over $200 for this dive, they made us pay a $5 deposit for one room key???? HORRIBLE. I've stayed at motels for $59 a night that were insanely better than this roach infested sleaze hole.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r272575899-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>272575899</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Really not that bad.</t>
+  </si>
+  <si>
+    <t>We were a two minute walk from seawall. Walmart and Kroger were just down the road. Room was nice, decent size, and cold, better WiFi than the last place I stayed at. Front desk was friendly and gave pointers for the best place to park and not have to pay. Already had set us up the with a bottom floor room before I asked. For the price and location, it wasn't bad at all but I'm not overly picky as long as I'm on a decent budget and not far from the beach.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r268081143-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>268081143</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The room was disgusting, the refrigerator didn't cool down. The beds aHad horrible mattress woke up hobbling and I'm 24. Flat pillows a leaking ceiling, stayed during a storm and had water all by the door. Missing a drawer out of the tv stand. The dryer sounded like it was about to explode. The carpets are disgusting white spots everywhere. The bathroom doesn't look like it's been mopped. Probably harboring foot funguses. Towels feel like sandpaper. But the people were nice. Our battery died on our door and couldn't get it. They had it fixed fast. Their idea of a free breakfast is a muffin and a free honeybun. Mirror is crooked. Ac smelled like crap. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>The room was disgusting, the refrigerator didn't cool down. The beds aHad horrible mattress woke up hobbling and I'm 24. Flat pillows a leaking ceiling, stayed during a storm and had water all by the door. Missing a drawer out of the tv stand. The dryer sounded like it was about to explode. The carpets are disgusting white spots everywhere. The bathroom doesn't look like it's been mopped. Probably harboring foot funguses. Towels feel like sandpaper. But the people were nice. Our battery died on our door and couldn't get it. They had it fixed fast. Their idea of a free breakfast is a muffin and a free honeybun. Mirror is crooked. Ac smelled like crap. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r232421184-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>232421184</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>THE WORST</t>
+  </si>
+  <si>
+    <t>We booked two rooms here at the last minute due to a lack of communication between parties.  We were in Galveston for a wedding.  The families involved checked in and we went on to our small condo..  My daughter texted me and said it was awful.  Smelled, no towels, phone cord not plugged in.  The chain lock fell off of one of the doors.  They decided to stay, after all it was reasonable rate for Galveston and manager let them check in early.  And we booked late.After dinner we followed them to rooms.  They were stuck at the very back next to an alley, very little lighting, two fellows sitting on the curb with a paper sack, another one hanging over the upstairs rail.  I almost had a panic attack.  This was one party of 2 women and 2 children and my grandson and wife and baby.  I can take maybe smelly for couple of nights, but not UNSAFE.We went to the office and after some confrontation, the manager agreed to give us our money back.  Booking.Com was very accommodating.  He kept assuring us it was completely safe - no area in Galveston is completely safe.  The phone was not hooked up in one room and the other one had no cord at all.  I don't care what the price, don't stay here unless you are desperate!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We booked two rooms here at the last minute due to a lack of communication between parties.  We were in Galveston for a wedding.  The families involved checked in and we went on to our small condo..  My daughter texted me and said it was awful.  Smelled, no towels, phone cord not plugged in.  The chain lock fell off of one of the doors.  They decided to stay, after all it was reasonable rate for Galveston and manager let them check in early.  And we booked late.After dinner we followed them to rooms.  They were stuck at the very back next to an alley, very little lighting, two fellows sitting on the curb with a paper sack, another one hanging over the upstairs rail.  I almost had a panic attack.  This was one party of 2 women and 2 children and my grandson and wife and baby.  I can take maybe smelly for couple of nights, but not UNSAFE.We went to the office and after some confrontation, the manager agreed to give us our money back.  Booking.Com was very accommodating.  He kept assuring us it was completely safe - no area in Galveston is completely safe.  The phone was not hooked up in one room and the other one had no cord at all.  I don't care what the price, don't stay here unless you are desperate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r232286989-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>232286989</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>It's outdated</t>
+  </si>
+  <si>
+    <t>The pictures are discreating ,it needs to be remodeled and updated. The phone in the room and the wifi didn't work. The room had a old smell to it. Also no breakfast And alot of rust In and around the building  I would never stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r230381429-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>230381429</t>
+  </si>
+  <si>
+    <t>09/22/2014</t>
+  </si>
+  <si>
+    <t>Not the worst, but close</t>
+  </si>
+  <si>
+    <t>Upon entering the room I found myself smashing the bugs all over the floor and walls. Spider on the pillow. Roach in the corner. The sheets were clean so I decided to give it a shot, but after an hour of the air conditioner not working I bailed. Don't make this mistake unless you like a humid, bug-filled night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r212711919-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>212711919</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Horrid</t>
+  </si>
+  <si>
+    <t>Over priced! Never stayed somewhere so trashy. Nothing works it's so dirty, it smells awful!! The microwave caught fire and I tried to call the front office and the phone was broke. It was a nightmare! Stay away from here!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r210760095-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>210760095</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Never Stay Here</t>
+  </si>
+  <si>
+    <t>We stayed here in May 2014. The place is run down and disgusting. No smoke alarm in the room(it was behind the tv) Tv didn't work. The beds were nasty and I found a flea on me. No lock on the door. Charge $5 CASH for a key card. It smelled really bad. They had what looked like a laundry facility located outside by the stairs. Washer &amp; Dryer was all rusted and looked dangerous. It advertises a pool however upon arrival you could see there hasn't been water in that pool in probably 3 years. The only good thing is 2 blocks from the seawall which is good because you don't want to spend any amount of time in this hotel!! I was scared to even go inside the lobby to see if there was anything for breakfast. We checked out first thing in the morning and left. This hotel is easily confused with the corporate chain of America's Best Value Inn &amp; Suites. I called their corporate office to complain and was told this hotel has not been part of the chain in 2 years because they were thrown off. DISGUSTING!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>We stayed here in May 2014. The place is run down and disgusting. No smoke alarm in the room(it was behind the tv) Tv didn't work. The beds were nasty and I found a flea on me. No lock on the door. Charge $5 CASH for a key card. It smelled really bad. They had what looked like a laundry facility located outside by the stairs. Washer &amp; Dryer was all rusted and looked dangerous. It advertises a pool however upon arrival you could see there hasn't been water in that pool in probably 3 years. The only good thing is 2 blocks from the seawall which is good because you don't want to spend any amount of time in this hotel!! I was scared to even go inside the lobby to see if there was anything for breakfast. We checked out first thing in the morning and left. This hotel is easily confused with the corporate chain of America's Best Value Inn &amp; Suites. I called their corporate office to complain and was told this hotel has not been part of the chain in 2 years because they were thrown off. DISGUSTING!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r208999737-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>208999737</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The only plus about this hotel is the location. It is close to the Historic Pier 61 . If you were wanting to fish and then just have a place to sleep and shower that was cheap this is for you. I would say it is slightly better than sleeping in a hunting lodge. The blankets had stains on them . The floor was dirty. Our room was behind the hotel which made it great for walking to the pier but it was also directly behind a cemetery. Creepy! The room was not sound proof at all and we had a hard time sleeping because of the loud seagulls that sounded like they were taking up residence right outside our door. It is at the bottom of a large hilly driveway and I'm sure it was the first to flood during the hurricane . The weird thing is , I don't think they replaced anything. I think they just cleaned it off. Which was probably the last time any of the rooms had seen a through cleaning ! We booked through booking.com and after the first night we decided to just spend the money and get a nicer hotel. I was lucky enough to get two rooms at the Quality Inn (which seemed like Buckingham Palace after staying here) but when I went to check out the clerk told me I had to cancel through booking.com. I called them from...The only plus about this hotel is the location. It is close to the Historic Pier 61 . If you were wanting to fish and then just have a place to sleep and shower that was cheap this is for you. I would say it is slightly better than sleeping in a hunting lodge. The blankets had stains on them . The floor was dirty. Our room was behind the hotel which made it great for walking to the pier but it was also directly behind a cemetery. Creepy! The room was not sound proof at all and we had a hard time sleeping because of the loud seagulls that sounded like they were taking up residence right outside our door. It is at the bottom of a large hilly driveway and I'm sure it was the first to flood during the hurricane . The weird thing is , I don't think they replaced anything. I think they just cleaned it off. Which was probably the last time any of the rooms had seen a through cleaning ! We booked through booking.com and after the first night we decided to just spend the money and get a nicer hotel. I was lucky enough to get two rooms at the Quality Inn (which seemed like Buckingham Palace after staying here) but when I went to check out the clerk told me I had to cancel through booking.com. I called them from the office and they said that the owner had to agree to let us leave early without charging us. This was news to me! I will definitely be more careful when booking with them next time. The owner wasn't happy but he did let us check out. I know it was only ranked a 5 on Trip Advisor but I thought for the price it would be fine . The web sight makes it look much better than what it actually is. The pool is tiny and was closed while we were there and breakfast is just a small packaged muffin and Tang. If this is all you can afford in Galveston, I would say do it but if you can spend more, this is definitely a case of " you get what you pay for!"MoreShow less</t>
+  </si>
+  <si>
+    <t>The only plus about this hotel is the location. It is close to the Historic Pier 61 . If you were wanting to fish and then just have a place to sleep and shower that was cheap this is for you. I would say it is slightly better than sleeping in a hunting lodge. The blankets had stains on them . The floor was dirty. Our room was behind the hotel which made it great for walking to the pier but it was also directly behind a cemetery. Creepy! The room was not sound proof at all and we had a hard time sleeping because of the loud seagulls that sounded like they were taking up residence right outside our door. It is at the bottom of a large hilly driveway and I'm sure it was the first to flood during the hurricane . The weird thing is , I don't think they replaced anything. I think they just cleaned it off. Which was probably the last time any of the rooms had seen a through cleaning ! We booked through booking.com and after the first night we decided to just spend the money and get a nicer hotel. I was lucky enough to get two rooms at the Quality Inn (which seemed like Buckingham Palace after staying here) but when I went to check out the clerk told me I had to cancel through booking.com. I called them from...The only plus about this hotel is the location. It is close to the Historic Pier 61 . If you were wanting to fish and then just have a place to sleep and shower that was cheap this is for you. I would say it is slightly better than sleeping in a hunting lodge. The blankets had stains on them . The floor was dirty. Our room was behind the hotel which made it great for walking to the pier but it was also directly behind a cemetery. Creepy! The room was not sound proof at all and we had a hard time sleeping because of the loud seagulls that sounded like they were taking up residence right outside our door. It is at the bottom of a large hilly driveway and I'm sure it was the first to flood during the hurricane . The weird thing is , I don't think they replaced anything. I think they just cleaned it off. Which was probably the last time any of the rooms had seen a through cleaning ! We booked through booking.com and after the first night we decided to just spend the money and get a nicer hotel. I was lucky enough to get two rooms at the Quality Inn (which seemed like Buckingham Palace after staying here) but when I went to check out the clerk told me I had to cancel through booking.com. I called them from the office and they said that the owner had to agree to let us leave early without charging us. This was news to me! I will definitely be more careful when booking with them next time. The owner wasn't happy but he did let us check out. I know it was only ranked a 5 on Trip Advisor but I thought for the price it would be fine . The web sight makes it look much better than what it actually is. The pool is tiny and was closed while we were there and breakfast is just a small packaged muffin and Tang. If this is all you can afford in Galveston, I would say do it but if you can spend more, this is definitely a case of " you get what you pay for!"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r173073399-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>173073399</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER</t>
+  </si>
+  <si>
+    <t>The Guy at the front desk was very rude and charged my credit card without permission $100 more then he was suppose to and then while I'm trying to talk to him he tells me to shut up and then we get to the room and our bathroom has black mole in it and we was scared to get showers there so we booked a room elsewhere. I wouldn't recommend this hotel to anyone!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r171986544-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>171986544</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Drity!!!!!!!</t>
+  </si>
+  <si>
+    <t>265.00 Dollars for a dirty bathtub the internet suck!! the tolit back up the light did not work in the bathroom,it smell funny, the TV suck wish i had check the internet before i book.please don't go there Nasty.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r170791712-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>170791712</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>This is the nastiest hotel I have been in, why is it still open ? The roaches creeped me out crawling on wall, couldn't even sleep , no cable tv,only had five channels, rusty doors,nasty blankets .etc.GROSS</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r165262980-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>165262980</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>THE MOST TERRIBLE PLACE I HAVE EVER STAYED</t>
+  </si>
+  <si>
+    <t>As soon as I walked in to the lobby I was not happy. It smelled of mold and mildew. We could not get a refund since we had already made the reservation on the internet.The room was filthy,even the glass on a print hanging on the wall had filth on it.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r165106502-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>165106502</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Don't do it</t>
+  </si>
+  <si>
+    <t>Bad $50.00 room cost $200.00 :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-D :-( :-( :-( :-( :-( :-(:-( :-( :-( :-( MoreShow less</t>
+  </si>
+  <si>
+    <t>Bad $50.00 room cost $200.00 :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-( :-D :-( :-( :-( :-( :-( :-(:-( :-( :-( :-( More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r162438055-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>162438055</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Bad, bad, bad</t>
+  </si>
+  <si>
+    <t>Overwhelming scent of air freshener throughout Rug had burn and rip in it. Towels - only 3 pool towels available in the room as bath towels no hand towels or washcloths. Dirty tile in bath Tub unsealed around the bottom and a random plastic cup sitting on the edge. Tissues were the worst quality I have experienced they were grey. Overall dirty feel. Stale Cheerios and Gnats all over the food area. Lobby restroom filthy!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r159298907-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>159298907</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Horrible!!!</t>
+  </si>
+  <si>
+    <t>We stayed 4/26/13 for our 5 year anniversary. Room was dirty, beds were lumpy, TV, VCR &amp; DVD player were broken, We called the front desk and were told, "sometimes they work; sometimes they don't work." We only saved $30 staying here. Would have been better to spend the little extra and stay in a cleaner hotel right on the beach. PAY the extra! It's defiantly worth it!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r157149564-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>157149564</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Nasty roach motel with horrible owner/manager</t>
+  </si>
+  <si>
+    <t>We were in Galveston on a weekend in April 2013. We had to find a new hotel for Saturday night and after hours of calling around (everything was sold out) our last resort was this hotel. We got there , me and 3 guys... And we were immediately disgusted by not only the appearance but the smell. We all looked around and decided to just tough it out as we didn't have another option. The beds were almost in the floor, carpet stained horrible, bathroom was filthy, bed comforter looked nasty, there was mold in the bathroom ceiling, looked like poop and hand prints all over the wall. I went to get in the shower and I wore my friends flip flops and luckily I had my own beach towel. The towels were nasty, stained and had holes in them.  No way in hell I was using one. A friend of mine rinsed off in the nasty dirty shower and used a tshirt to dry off. It was just ridiculous. We left to meet friends for a late lunch And we were telling them how horrible it was a friend of ours got on his phone and called the motel. He convinced him to refund our money and vacate. That was around 3pm and we had to vacate by 4 pm to get a refund. Our friends followed us and when we got there we started packing up our stuff...We were in Galveston on a weekend in April 2013. We had to find a new hotel for Saturday night and after hours of calling around (everything was sold out) our last resort was this hotel. We got there , me and 3 guys... And we were immediately disgusted by not only the appearance but the smell. We all looked around and decided to just tough it out as we didn't have another option. The beds were almost in the floor, carpet stained horrible, bathroom was filthy, bed comforter looked nasty, there was mold in the bathroom ceiling, looked like poop and hand prints all over the wall. I went to get in the shower and I wore my friends flip flops and luckily I had my own beach towel. The towels were nasty, stained and had holes in them.  No way in hell I was using one. A friend of mine rinsed off in the nasty dirty shower and used a tshirt to dry off. It was just ridiculous. We left to meet friends for a late lunch And we were telling them how horrible it was a friend of ours got on his phone and called the motel. He convinced him to refund our money and vacate. That was around 3pm and we had to vacate by 4 pm to get a refund. Our friends followed us and when we got there we started packing up our stuff and the manager/ owner followed my friend to the room and watched us as we left the room. As if we were going to steal something from this nasty place. He was incredibly rude and cocky. I asked him if he owned this place and he said yes... I told him If I were him I would be embarrassed to rent a room to anyone here. He then proceeded to tell us he charges $350/night in the summer. I told him he was smoking f'ing crack and he was a thief. Whatever you do..... DO NOT STAY HERE!!! Put these damn people out of business. They are liars, thiefs, nasty, horrible people. Oh and the kicked for all of it was that our room cost $120 for the NIGHT!!!!!! Our friends had a hook up at the holiday inn resort for $79.99.... Total nightmare and avoid at all costs!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in Galveston on a weekend in April 2013. We had to find a new hotel for Saturday night and after hours of calling around (everything was sold out) our last resort was this hotel. We got there , me and 3 guys... And we were immediately disgusted by not only the appearance but the smell. We all looked around and decided to just tough it out as we didn't have another option. The beds were almost in the floor, carpet stained horrible, bathroom was filthy, bed comforter looked nasty, there was mold in the bathroom ceiling, looked like poop and hand prints all over the wall. I went to get in the shower and I wore my friends flip flops and luckily I had my own beach towel. The towels were nasty, stained and had holes in them.  No way in hell I was using one. A friend of mine rinsed off in the nasty dirty shower and used a tshirt to dry off. It was just ridiculous. We left to meet friends for a late lunch And we were telling them how horrible it was a friend of ours got on his phone and called the motel. He convinced him to refund our money and vacate. That was around 3pm and we had to vacate by 4 pm to get a refund. Our friends followed us and when we got there we started packing up our stuff...We were in Galveston on a weekend in April 2013. We had to find a new hotel for Saturday night and after hours of calling around (everything was sold out) our last resort was this hotel. We got there , me and 3 guys... And we were immediately disgusted by not only the appearance but the smell. We all looked around and decided to just tough it out as we didn't have another option. The beds were almost in the floor, carpet stained horrible, bathroom was filthy, bed comforter looked nasty, there was mold in the bathroom ceiling, looked like poop and hand prints all over the wall. I went to get in the shower and I wore my friends flip flops and luckily I had my own beach towel. The towels were nasty, stained and had holes in them.  No way in hell I was using one. A friend of mine rinsed off in the nasty dirty shower and used a tshirt to dry off. It was just ridiculous. We left to meet friends for a late lunch And we were telling them how horrible it was a friend of ours got on his phone and called the motel. He convinced him to refund our money and vacate. That was around 3pm and we had to vacate by 4 pm to get a refund. Our friends followed us and when we got there we started packing up our stuff and the manager/ owner followed my friend to the room and watched us as we left the room. As if we were going to steal something from this nasty place. He was incredibly rude and cocky. I asked him if he owned this place and he said yes... I told him If I were him I would be embarrassed to rent a room to anyone here. He then proceeded to tell us he charges $350/night in the summer. I told him he was smoking f'ing crack and he was a thief. Whatever you do..... DO NOT STAY HERE!!! Put these damn people out of business. They are liars, thiefs, nasty, horrible people. Oh and the kicked for all of it was that our room cost $120 for the NIGHT!!!!!! Our friends had a hook up at the holiday inn resort for $79.99.... Total nightmare and avoid at all costs!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r139400186-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>139400186</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Don't stay here!!! It's DISGUSTING!!! Stayed here on 9/3/12</t>
+  </si>
+  <si>
+    <t>This was the worst experience ever! After we notified the night manager that our room smelled like vomit and there were stains on the floor we were quite offended when he said that he didn't know if we had done that. Then he suggested that we stay in that room since he didn't have another double bed room. I told him I was not gonna sleep in that DISGUSTING room! He found another room with 1 bed. I told him we needed two beds, but he did not want to give us an additional room unless we paid for it. We could not afford that so we were forced to take one room with one bed for 4 people. Two adults slept on a hard cot. In addition to this, myself and one of the younger children awoke to bedbug bites all over our bodies. This hotel is nasty stay FAR AWAY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>This was the worst experience ever! After we notified the night manager that our room smelled like vomit and there were stains on the floor we were quite offended when he said that he didn't know if we had done that. Then he suggested that we stay in that room since he didn't have another double bed room. I told him I was not gonna sleep in that DISGUSTING room! He found another room with 1 bed. I told him we needed two beds, but he did not want to give us an additional room unless we paid for it. We could not afford that so we were forced to take one room with one bed for 4 people. Two adults slept on a hard cot. In addition to this, myself and one of the younger children awoke to bedbug bites all over our bodies. This hotel is nasty stay FAR AWAY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r121607666-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>121607666</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>WORST EVER</t>
+  </si>
+  <si>
+    <t>bath room floor black w/mold.  corners and behind furniture filthey.  4 ref. and stil did not work right.  carpets discusting.  room service every other day, maybe...  nothing good to say.  and guess what?  bed bugs!!!  that was my last night.  I'd rather stay in my car.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r116821536-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>116821536</t>
+  </si>
+  <si>
+    <t>08/16/2011</t>
+  </si>
+  <si>
+    <t>Don't waste your time, RUDE mgmt, broke appliance and DIRTY place.</t>
+  </si>
+  <si>
+    <t>Wish I had read these other reviews before booking this place.I sent my grand-daughter and son to Galveston for only 1 night (all they had) for a quick summer outing on 8/13.  My son came by early just to check on possible early check in and was asked to come back after 11am.  When he did... the nightmare at this  establishment began.  My son was lectured about trying to check-in early.  When he asked to confirm his room he was instructed to "BE QUIET" so the employee could work on his terminal.  When my son returned after 3pm to checkin he found the POOL not operational,  microwave in the room not functioning.  When he asked for a replacement or service, no one ever came after they said they would.  The place was dirty and the service RUDE and UNCARING.  For $200 for one night.... this is almost CRIMINAL and was like being in a third world country. Service can make up for alot of other issues.  Apparently this company is not aware of that.  A VERY UNHAPPY CUSTOMER.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Wish I had read these other reviews before booking this place.I sent my grand-daughter and son to Galveston for only 1 night (all they had) for a quick summer outing on 8/13.  My son came by early just to check on possible early check in and was asked to come back after 11am.  When he did... the nightmare at this  establishment began.  My son was lectured about trying to check-in early.  When he asked to confirm his room he was instructed to "BE QUIET" so the employee could work on his terminal.  When my son returned after 3pm to checkin he found the POOL not operational,  microwave in the room not functioning.  When he asked for a replacement or service, no one ever came after they said they would.  The place was dirty and the service RUDE and UNCARING.  For $200 for one night.... this is almost CRIMINAL and was like being in a third world country. Service can make up for alot of other issues.  Apparently this company is not aware of that.  A VERY UNHAPPY CUSTOMER.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r115661119-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115661119</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>Spend more to go elsewhere if you are able.</t>
+  </si>
+  <si>
+    <t>It could have been worse, but it was late and I was desperate.  The room felt humid.  I realize it is near the ocean but the room had air conditioning, not a swamp cooler.  The bathroom floor was grimy along the sides, making it obvious that if the floor is every actually mopped, it is just a quick once-over and there was enough grime on the floor behind the door to make it clear that no one mops back there.  
+There was partially-dried urine on the toilet seat and lid.  It did not come from us.  
+The floor in the bathroom was just gross.  You could tell it hadn't been cleaned after the last people were there.  Straightened, yes.  Mopped?  No.  
+There was mildew along the bottom of the shower curtain.  
+The entire room - especially the bathroom - grossed me out enough that I made my kids wear their flip flops, even in the shower.  My littlest didn't wear her shoes the next morning and her feet were filthy afterward!  It looked like she had been walking barefoot on the sidewalk rather than in a motel room.  I snapped a photo just as we stepped out of the door.  In the photo we're on the walkway out front but the filth on her feet came from the room, not the walkway.
+Pillows on the beds were a joke.  They were flat as pancakes - almost literally.  Even stacking two...It could have been worse, but it was late and I was desperate.  The room felt humid.  I realize it is near the ocean but the room had air conditioning, not a swamp cooler.  The bathroom floor was grimy along the sides, making it obvious that if the floor is every actually mopped, it is just a quick once-over and there was enough grime on the floor behind the door to make it clear that no one mops back there.  There was partially-dried urine on the toilet seat and lid.  It did not come from us.  The floor in the bathroom was just gross.  You could tell it hadn't been cleaned after the last people were there.  Straightened, yes.  Mopped?  No.  There was mildew along the bottom of the shower curtain.  The entire room - especially the bathroom - grossed me out enough that I made my kids wear their flip flops, even in the shower.  My littlest didn't wear her shoes the next morning and her feet were filthy afterward!  It looked like she had been walking barefoot on the sidewalk rather than in a motel room.  I snapped a photo just as we stepped out of the door.  In the photo we're on the walkway out front but the filth on her feet came from the room, not the walkway.Pillows on the beds were a joke.  They were flat as pancakes - almost literally.  Even stacking two wasn't enough, and I am not one that likes very fluffy pillows.  The sign in the lobby says that the lobby hours are from 6am-8pm (I think it's 8pm..I KNOW it says 6 a.m.).  When I tried to come turn in our room key card at 7:45, the doors were locked and there was no one in sight at the counter.  Even knocking didn't bring anyone to the door.  We wound up coming back two hours later to check out.  Good thing we didn't have to leave Galveston that day or we would have had issues.We will NEVER stay in this place again, unless it falls under new ownership.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>It could have been worse, but it was late and I was desperate.  The room felt humid.  I realize it is near the ocean but the room had air conditioning, not a swamp cooler.  The bathroom floor was grimy along the sides, making it obvious that if the floor is every actually mopped, it is just a quick once-over and there was enough grime on the floor behind the door to make it clear that no one mops back there.  
+There was partially-dried urine on the toilet seat and lid.  It did not come from us.  
+The floor in the bathroom was just gross.  You could tell it hadn't been cleaned after the last people were there.  Straightened, yes.  Mopped?  No.  
+There was mildew along the bottom of the shower curtain.  
+The entire room - especially the bathroom - grossed me out enough that I made my kids wear their flip flops, even in the shower.  My littlest didn't wear her shoes the next morning and her feet were filthy afterward!  It looked like she had been walking barefoot on the sidewalk rather than in a motel room.  I snapped a photo just as we stepped out of the door.  In the photo we're on the walkway out front but the filth on her feet came from the room, not the walkway.
+Pillows on the beds were a joke.  They were flat as pancakes - almost literally.  Even stacking two...It could have been worse, but it was late and I was desperate.  The room felt humid.  I realize it is near the ocean but the room had air conditioning, not a swamp cooler.  The bathroom floor was grimy along the sides, making it obvious that if the floor is every actually mopped, it is just a quick once-over and there was enough grime on the floor behind the door to make it clear that no one mops back there.  There was partially-dried urine on the toilet seat and lid.  It did not come from us.  The floor in the bathroom was just gross.  You could tell it hadn't been cleaned after the last people were there.  Straightened, yes.  Mopped?  No.  There was mildew along the bottom of the shower curtain.  The entire room - especially the bathroom - grossed me out enough that I made my kids wear their flip flops, even in the shower.  My littlest didn't wear her shoes the next morning and her feet were filthy afterward!  It looked like she had been walking barefoot on the sidewalk rather than in a motel room.  I snapped a photo just as we stepped out of the door.  In the photo we're on the walkway out front but the filth on her feet came from the room, not the walkway.Pillows on the beds were a joke.  They were flat as pancakes - almost literally.  Even stacking two wasn't enough, and I am not one that likes very fluffy pillows.  The sign in the lobby says that the lobby hours are from 6am-8pm (I think it's 8pm..I KNOW it says 6 a.m.).  When I tried to come turn in our room key card at 7:45, the doors were locked and there was no one in sight at the counter.  Even knocking didn't bring anyone to the door.  We wound up coming back two hours later to check out.  Good thing we didn't have to leave Galveston that day or we would have had issues.We will NEVER stay in this place again, unless it falls under new ownership.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r89450573-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>89450573</t>
+  </si>
+  <si>
+    <t>12/09/2010</t>
+  </si>
+  <si>
+    <t>A good location but very disappointing</t>
+  </si>
+  <si>
+    <t>The location was good - just one block from the beach and walking distance to restaurants and shopping but was very poorly maintained.  There was black mold on the ceiling of the bathroom.  The sheets were threadbare and had several holes in them.  The mattress pad had cigarette burn holes and this was supposed to be a "non-smoking" room.  There was a tv but no remote, a coffeemaker but no coffee.  No telephone in the room.The continental breakfast consisted of a thermos of coffee, a jug of Sunny Delight and some tiny packaged muffins.All in all the owner is doing the minimum in service.  It was cheap but not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>The location was good - just one block from the beach and walking distance to restaurants and shopping but was very poorly maintained.  There was black mold on the ceiling of the bathroom.  The sheets were threadbare and had several holes in them.  The mattress pad had cigarette burn holes and this was supposed to be a "non-smoking" room.  There was a tv but no remote, a coffeemaker but no coffee.  No telephone in the room.The continental breakfast consisted of a thermos of coffee, a jug of Sunny Delight and some tiny packaged muffins.All in all the owner is doing the minimum in service.  It was cheap but not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r69767013-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>69767013</t>
+  </si>
+  <si>
+    <t>07/05/2010</t>
+  </si>
+  <si>
+    <t>Needs to be Cleaned and Fumigated - Say Nope to Dope</t>
+  </si>
+  <si>
+    <t>My family (wife and two kids-5&amp;9) arrive around 10 pm. I saw six cars in the parking lot. The lobby was clean. As we went to our room, we noticed the salt corrosion on the door. The first key card didn't work so we used the second one. As we entered the non-smoking room, the smell of smoke and mildew met us at the door. We decided to endure the night. We went to Walgreen's to buy Lysol. We sprayed the beds, the floors, the bathroom and the pillows and waited fifteen minutes before lying on the beds. Our two boys ran around the room with their socks on and then we noticed how dirty the bottom of their socks were. My wife took a shower and she got out and dried and had to get back in the shower to wash her feet again. As we were leaving the room, the smoke and mildew smell returned to bid us adieu. If you can avoid this hotel, do so.This is the dirtiest hotel, motel, inn or hourly day stop I have ever stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My family (wife and two kids-5&amp;9) arrive around 10 pm. I saw six cars in the parking lot. The lobby was clean. As we went to our room, we noticed the salt corrosion on the door. The first key card didn't work so we used the second one. As we entered the non-smoking room, the smell of smoke and mildew met us at the door. We decided to endure the night. We went to Walgreen's to buy Lysol. We sprayed the beds, the floors, the bathroom and the pillows and waited fifteen minutes before lying on the beds. Our two boys ran around the room with their socks on and then we noticed how dirty the bottom of their socks were. My wife took a shower and she got out and dried and had to get back in the shower to wash her feet again. As we were leaving the room, the smoke and mildew smell returned to bid us adieu. If you can avoid this hotel, do so.This is the dirtiest hotel, motel, inn or hourly day stop I have ever stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r41647583-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>41647583</t>
+  </si>
+  <si>
+    <t>09/14/2009</t>
+  </si>
+  <si>
+    <t>Nasty rooms - not like our visit in May 2005</t>
+  </si>
+  <si>
+    <t>We selected this hotel based on a previous stay that we were very pleased with.  However, we were very disappointed with the current conditions of this hotel.  The bathroom needs a thorough cleaning and the toilet seat needs to be replaced.  We requested a non smoking room with a balcony.  Clearly, this room had guests who had smoked and there are no rooms with private balconies.  This is a misrepresentation of the reservation process.  The refrigerator did not work at all.  The overall outdoor maintenance is poor.  The continental breakfast only offered coffee, muffins, and sweet rolls.  Most continental breakfasts include a choice of juices and a variety of fruit and cereals.  We will not stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>We selected this hotel based on a previous stay that we were very pleased with.  However, we were very disappointed with the current conditions of this hotel.  The bathroom needs a thorough cleaning and the toilet seat needs to be replaced.  We requested a non smoking room with a balcony.  Clearly, this room had guests who had smoked and there are no rooms with private balconies.  This is a misrepresentation of the reservation process.  The refrigerator did not work at all.  The overall outdoor maintenance is poor.  The continental breakfast only offered coffee, muffins, and sweet rolls.  Most continental breakfasts include a choice of juices and a variety of fruit and cereals.  We will not stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r17102048-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>17102048</t>
+  </si>
+  <si>
+    <t>06/21/2008</t>
+  </si>
+  <si>
+    <t>Non-smoking rooms...nonexistent</t>
+  </si>
+  <si>
+    <t>My daughter-in-law booked at the hotel website, two rooms for one overnight stay.  She and her two children were to be in one room, my husband and I in the other.  She explicitly wrote in the comment box that these rooms were to be non-smoking due to severe smoke allergies.
+When we arrived and checked in, we went to our rooms and found they were not non-smoking.  They were listed as such, but the non-smoking rule was not enforced.  When we complained and requested non-smoking rooms, we were told that they all were pretty much like that.  The man at the front desk told us there was no way to enforce non-smoking.  He proceeded to tell us that if we did not take the rooms, we would have to pay for them anyway as they had a rule allowing them to do so.  
+I told him our request was not honored and therefor his rule did not apply.  He was becoming very agitated about this.  He said he was a smoker and had problems quitting....seemed to take it personally.  At any rate, I told him he would not charge us for the reservation unless he could get us a non-smoking room.  He finally agreed, after about a half and hour of arguing that he would "let" us stay in the King suites at the same rate as they usually were smoke free.  After inspecting the suite, we accepted.  If we...My daughter-in-law booked at the hotel website, two rooms for one overnight stay.  She and her two children were to be in one room, my husband and I in the other.  She explicitly wrote in the comment box that these rooms were to be non-smoking due to severe smoke allergies.When we arrived and checked in, we went to our rooms and found they were not non-smoking.  They were listed as such, but the non-smoking rule was not enforced.  When we complained and requested non-smoking rooms, we were told that they all were pretty much like that.  The man at the front desk told us there was no way to enforce non-smoking.  He proceeded to tell us that if we did not take the rooms, we would have to pay for them anyway as they had a rule allowing them to do so.  I told him our request was not honored and therefor his rule did not apply.  He was becoming very agitated about this.  He said he was a smoker and had problems quitting....seemed to take it personally.  At any rate, I told him he would not charge us for the reservation unless he could get us a non-smoking room.  He finally agreed, after about a half and hour of arguing that he would "let" us stay in the King suites at the same rate as they usually were smoke free.  After inspecting the suite, we accepted.  If we had not been so tired from our drive, we would have pressed the issue and went somewhere else.I would not stay in the motel again.  It was very dirty outside.  Windows were covered with dirt.  The stairs were dirty and all areas around the motel were  not clean.  Our rooms were in the back of the motel and across from an old graveyard.  This is something you should be aware of, if things like that bother you.  Our King Suites were clean, that is the best thing I can say about this place. The other few rooms that were rented appeared to have been rented by construction workers.  Some were grilling on the back of their trucks.  One man told us he worked in Glaveston during the week and stayed here as the drive home was too long.  It appears that this motel is ideal for those who do not want cleanliness to be at the top of their list, and those who smoke and do not mind the odor.  If you just want a place to crash for the night, this might be for you.  Spring breakers would fit right in.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>My daughter-in-law booked at the hotel website, two rooms for one overnight stay.  She and her two children were to be in one room, my husband and I in the other.  She explicitly wrote in the comment box that these rooms were to be non-smoking due to severe smoke allergies.
+When we arrived and checked in, we went to our rooms and found they were not non-smoking.  They were listed as such, but the non-smoking rule was not enforced.  When we complained and requested non-smoking rooms, we were told that they all were pretty much like that.  The man at the front desk told us there was no way to enforce non-smoking.  He proceeded to tell us that if we did not take the rooms, we would have to pay for them anyway as they had a rule allowing them to do so.  
+I told him our request was not honored and therefor his rule did not apply.  He was becoming very agitated about this.  He said he was a smoker and had problems quitting....seemed to take it personally.  At any rate, I told him he would not charge us for the reservation unless he could get us a non-smoking room.  He finally agreed, after about a half and hour of arguing that he would "let" us stay in the King suites at the same rate as they usually were smoke free.  After inspecting the suite, we accepted.  If we...My daughter-in-law booked at the hotel website, two rooms for one overnight stay.  She and her two children were to be in one room, my husband and I in the other.  She explicitly wrote in the comment box that these rooms were to be non-smoking due to severe smoke allergies.When we arrived and checked in, we went to our rooms and found they were not non-smoking.  They were listed as such, but the non-smoking rule was not enforced.  When we complained and requested non-smoking rooms, we were told that they all were pretty much like that.  The man at the front desk told us there was no way to enforce non-smoking.  He proceeded to tell us that if we did not take the rooms, we would have to pay for them anyway as they had a rule allowing them to do so.  I told him our request was not honored and therefor his rule did not apply.  He was becoming very agitated about this.  He said he was a smoker and had problems quitting....seemed to take it personally.  At any rate, I told him he would not charge us for the reservation unless he could get us a non-smoking room.  He finally agreed, after about a half and hour of arguing that he would "let" us stay in the King suites at the same rate as they usually were smoke free.  After inspecting the suite, we accepted.  If we had not been so tired from our drive, we would have pressed the issue and went somewhere else.I would not stay in the motel again.  It was very dirty outside.  Windows were covered with dirt.  The stairs were dirty and all areas around the motel were  not clean.  Our rooms were in the back of the motel and across from an old graveyard.  This is something you should be aware of, if things like that bother you.  Our King Suites were clean, that is the best thing I can say about this place. The other few rooms that were rented appeared to have been rented by construction workers.  Some were grilling on the back of their trucks.  One man told us he worked in Glaveston during the week and stayed here as the drive home was too long.  It appears that this motel is ideal for those who do not want cleanliness to be at the top of their list, and those who smoke and do not mind the odor.  If you just want a place to crash for the night, this might be for you.  Spring breakers would fit right in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r15497077-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>15497077</t>
+  </si>
+  <si>
+    <t>04/30/2008</t>
+  </si>
+  <si>
+    <t>Creepy, low-class place</t>
+  </si>
+  <si>
+    <t>A  creepy and most inconvenient 3 nights: key card had to be "re-swiped" three times. Housekeeping left visible dirt and trash in the bathroom. Poor baseboard carpentry left holes and globs of caulking.Someone appeared to be "camping out" next door, with a barbecue and boom box on display outside the door. Broken beer bottles near customers' parked cars.TV gets only 4 channels, two of them poorly. I would be less inclined to complain if the rate was $49 for all three nights, as it was on Sunday. But at $89 and $99 on Friday and Saturday, one expects more. It felt like a low class place. My brother in-law recommended  10 people to this place. I'll make sure he does not recommend any more.MoreShow less</t>
+  </si>
+  <si>
+    <t>A  creepy and most inconvenient 3 nights: key card had to be "re-swiped" three times. Housekeeping left visible dirt and trash in the bathroom. Poor baseboard carpentry left holes and globs of caulking.Someone appeared to be "camping out" next door, with a barbecue and boom box on display outside the door. Broken beer bottles near customers' parked cars.TV gets only 4 channels, two of them poorly. I would be less inclined to complain if the rate was $49 for all three nights, as it was on Sunday. But at $89 and $99 on Friday and Saturday, one expects more. It felt like a low class place. My brother in-law recommended  10 people to this place. I'll make sure he does not recommend any more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r13356404-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>13356404</t>
+  </si>
+  <si>
+    <t>02/07/2008</t>
+  </si>
+  <si>
+    <t>Not Worth the Money</t>
+  </si>
+  <si>
+    <t>For $150 a night...definitely not worth the price. The air conditioning/heating unit sounded like a lawn mower cranking up everytime it came on.  Basic furnishings but not kept up well.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r6046603-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>6046603</t>
+  </si>
+  <si>
+    <t>11/01/2006</t>
+  </si>
+  <si>
+    <t>Worst place I have ever stayed</t>
+  </si>
+  <si>
+    <t>We have stayed at other hotels for the same price and had absolutely wonderful stays. I can't say the same about this place. The "suite" was missing the sofa and table, the rest of the furniture was broken or needed repairs and/or cleaning. The telephone did not work, there are no amenities. The two towels left in the room were ragged and stained. The first morning my husband went to the lobby for 2 cups of coffee and two of the stale sweet rolls, he was yelled at by the desk clerk that he could not take anything out of the dining area. Being extremely embarassed, he left and bought our breakfast elsewhere. We also purchased our own coffeemaker, coffee, and cups since they were not provided. We were accosted by beggars in the parking lot when returning to the hotel. We have stayed at many hotels in the Galveston area and have never felt so disappointed as we did in this last stay. Please don't ruin your vacation by staying in this place. We forfeited the cost ot the rest of our stay just to get out of the place. The manager stated,"Sorry, you must give 24 hour notice."MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>We have stayed at other hotels for the same price and had absolutely wonderful stays. I can't say the same about this place. The "suite" was missing the sofa and table, the rest of the furniture was broken or needed repairs and/or cleaning. The telephone did not work, there are no amenities. The two towels left in the room were ragged and stained. The first morning my husband went to the lobby for 2 cups of coffee and two of the stale sweet rolls, he was yelled at by the desk clerk that he could not take anything out of the dining area. Being extremely embarassed, he left and bought our breakfast elsewhere. We also purchased our own coffeemaker, coffee, and cups since they were not provided. We were accosted by beggars in the parking lot when returning to the hotel. We have stayed at many hotels in the Galveston area and have never felt so disappointed as we did in this last stay. Please don't ruin your vacation by staying in this place. We forfeited the cost ot the rest of our stay just to get out of the place. The manager stated,"Sorry, you must give 24 hour notice."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r5233718-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>5233718</t>
+  </si>
+  <si>
+    <t>05/28/2006</t>
+  </si>
+  <si>
+    <t>Budget property</t>
+  </si>
+  <si>
+    <t>Two-year-old budget property in Galveston.  Was inexpensive, but that showed in towels, bedding and amenities.  Room was clean and had microfridge and microwave.  High-speed available in room, but firewall prevented sending email.  Breakfast limited to coffee, juice and danish.  The property was acceptable, but I suspect that guests choosing to stay in '07 and beyond will find that the economy starts to show in other ways.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r4692484-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>4692484</t>
+  </si>
+  <si>
+    <t>03/18/2006</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>As a returning guest from years ago, I was very disappointed. The room smelled like smoke and was filthy. It now needs painting.There were stains on walls, the carpet was so dirty that we wore socks at all times. The tub backed up with water while showering, beds were hard and we never received extra pillows that we requested. Breakfeast was a joke and the staff was rude. Would not recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r3503835-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>3503835</t>
+  </si>
+  <si>
+    <t>05/26/2005</t>
+  </si>
+  <si>
+    <t>Loved Galveston</t>
+  </si>
+  <si>
+    <t>We just spent a week in Galveston and we was amazed how beautiful the area is. We loved the beach. We took the duck tour and the ferry ride and we loved the shops and the GREAT FOOD there.We can not wait to go back.Downtown is awesome! We loved our time in GALVESTON!!!!!!!!! The hotel where we stayed was very reasonable and very good service!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r2330077-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>2330077</t>
+  </si>
+  <si>
+    <t>07/28/2004</t>
+  </si>
+  <si>
+    <t>Is 'less' really more in a guest room?</t>
+  </si>
+  <si>
+    <t>Ok, ok, I waited til the last minute to get a room in Galveston on a Saturday night, so I suppose I deserve some of this, but still.....  
+At 9:00pm Saturday night, July 24th, I walked into the lobby of the motel and into the middle of a shouting argument between the manager of the hotel and 2 would-be guests (newlywed seniors, no less). Due to some snafu with their new credit card being declined, their reservation had been cancelled (UNbeknownst to them until they arrived). The manager was saying (shouting, really) that he had no more rooms and it wasn't his job to call them and let them know that their reservation had been cancelled. The couple was irate, as you can imagine. This did not speak well for the manager. It probably wasn't his "respondibility" but it sure would've been courteous to at least let them know. 
+I got the feeling as we checked into our own room and looked around that this manager was out to provide only the most minimal ammenities in his hotel that he could get away with. The very cheapest coffee, only one creamer packet, cheap, rough terry cloth towels, etc. I mean, it was clean, but please! I was spending almost $200 for this room that probably goes for $70 during the week. Couldn't they put good coffee in the room? 
+Some people know the price of everything and the value of...Ok, ok, I waited til the last minute to get a room in Galveston on a Saturday night, so I suppose I deserve some of this, but still.....  At 9:00pm Saturday night, July 24th, I walked into the lobby of the motel and into the middle of a shouting argument between the manager of the hotel and 2 would-be guests (newlywed seniors, no less). Due to some snafu with their new credit card being declined, their reservation had been cancelled (UNbeknownst to them until they arrived). The manager was saying (shouting, really) that he had no more rooms and it wasn't his job to call them and let them know that their reservation had been cancelled. The couple was irate, as you can imagine. This did not speak well for the manager. It probably wasn't his "respondibility" but it sure would've been courteous to at least let them know. I got the feeling as we checked into our own room and looked around that this manager was out to provide only the most minimal ammenities in his hotel that he could get away with. The very cheapest coffee, only one creamer packet, cheap, rough terry cloth towels, etc. I mean, it was clean, but please! I was spending almost $200 for this room that probably goes for $70 during the week. Couldn't they put good coffee in the room? Some people know the price of everything and the value of nothing. I probably won't stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok, ok, I waited til the last minute to get a room in Galveston on a Saturday night, so I suppose I deserve some of this, but still.....  
+At 9:00pm Saturday night, July 24th, I walked into the lobby of the motel and into the middle of a shouting argument between the manager of the hotel and 2 would-be guests (newlywed seniors, no less). Due to some snafu with their new credit card being declined, their reservation had been cancelled (UNbeknownst to them until they arrived). The manager was saying (shouting, really) that he had no more rooms and it wasn't his job to call them and let them know that their reservation had been cancelled. The couple was irate, as you can imagine. This did not speak well for the manager. It probably wasn't his "respondibility" but it sure would've been courteous to at least let them know. 
+I got the feeling as we checked into our own room and looked around that this manager was out to provide only the most minimal ammenities in his hotel that he could get away with. The very cheapest coffee, only one creamer packet, cheap, rough terry cloth towels, etc. I mean, it was clean, but please! I was spending almost $200 for this room that probably goes for $70 during the week. Couldn't they put good coffee in the room? 
+Some people know the price of everything and the value of...Ok, ok, I waited til the last minute to get a room in Galveston on a Saturday night, so I suppose I deserve some of this, but still.....  At 9:00pm Saturday night, July 24th, I walked into the lobby of the motel and into the middle of a shouting argument between the manager of the hotel and 2 would-be guests (newlywed seniors, no less). Due to some snafu with their new credit card being declined, their reservation had been cancelled (UNbeknownst to them until they arrived). The manager was saying (shouting, really) that he had no more rooms and it wasn't his job to call them and let them know that their reservation had been cancelled. The couple was irate, as you can imagine. This did not speak well for the manager. It probably wasn't his "respondibility" but it sure would've been courteous to at least let them know. I got the feeling as we checked into our own room and looked around that this manager was out to provide only the most minimal ammenities in his hotel that he could get away with. The very cheapest coffee, only one creamer packet, cheap, rough terry cloth towels, etc. I mean, it was clean, but please! I was spending almost $200 for this room that probably goes for $70 during the week. Couldn't they put good coffee in the room? Some people know the price of everything and the value of nothing. I probably won't stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r2301845-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>2301845</t>
+  </si>
+  <si>
+    <t>07/14/2004</t>
+  </si>
+  <si>
+    <t>Nice Price and Clean</t>
+  </si>
+  <si>
+    <t>We stayed one night.  Room very clean, but fairly non-frill.  Good price for just a place to lay your head.  No complaints, front desk staff were nice/efficient.  Long term stays I would seek other options, but for overnight..right on the money.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1584,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1616,3401 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="O14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K20" t="s">
+        <v>170</v>
+      </c>
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>187</v>
+      </c>
+      <c r="J23" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K27" t="s">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s">
+        <v>216</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>210</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" t="s">
+        <v>219</v>
+      </c>
+      <c r="K28" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>81</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>67</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>246</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" t="s">
+        <v>249</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L35" t="s">
+        <v>260</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" t="s">
+        <v>264</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>269</v>
+      </c>
+      <c r="J37" t="s">
+        <v>270</v>
+      </c>
+      <c r="K37" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s">
+        <v>272</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>273</v>
+      </c>
+      <c r="O37" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>293</v>
+      </c>
+      <c r="J41" t="s">
+        <v>294</v>
+      </c>
+      <c r="K41" t="s">
+        <v>295</v>
+      </c>
+      <c r="L41" t="s">
+        <v>296</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>97</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+      <c r="O43" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s">
+        <v>316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>333</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>335</v>
+      </c>
+      <c r="K47" t="s">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s">
+        <v>337</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>338</v>
+      </c>
+      <c r="O47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+      <c r="J48" t="s">
+        <v>342</v>
+      </c>
+      <c r="K48" t="s">
+        <v>343</v>
+      </c>
+      <c r="L48" t="s">
+        <v>344</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>351</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>357</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>365</v>
+      </c>
+      <c r="J52" t="s">
+        <v>366</v>
+      </c>
+      <c r="K52" t="s">
+        <v>367</v>
+      </c>
+      <c r="L52" t="s">
+        <v>368</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s">
+        <v>373</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>374</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>375</v>
+      </c>
+      <c r="J54" t="s">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s">
+        <v>378</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>380</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>381</v>
+      </c>
+      <c r="J55" t="s">
+        <v>382</v>
+      </c>
+      <c r="K55" t="s">
+        <v>383</v>
+      </c>
+      <c r="L55" t="s">
+        <v>384</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_491.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_491.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="619">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r597487457-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>55879</t>
+  </si>
+  <si>
+    <t>277887</t>
+  </si>
+  <si>
+    <t>597487457</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Great motel to enjoy with family.Staff is very friendly and greets with a smile. They were very helpful.  The rooms are clean and well kept. The location is perfect and the beach is at a walking distance.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r591556515-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>591556515</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Ghetto on the Seawall</t>
+  </si>
+  <si>
+    <t>I would recommend if you need to stay in Galveston you stay Anywhere But Here the rooms are dirty air conditioners leaked if they worked at all and if you complained. The owner/manager  told us "you can check out and check in somewhere else!" They don't care Motel 6 should yank their franchise.They said if we needed extra blankets or pillows for the fold out couch, Walmart is  around the corner. Wanted us to pay for another room, said that we weren't allowed to have more than one adult per bed so that would mean you can't have more than three adults in the room and that was the fire code for Galveston when you tried to speak to him they barely spoke English if they smoke it at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>I would recommend if you need to stay in Galveston you stay Anywhere But Here the rooms are dirty air conditioners leaked if they worked at all and if you complained. The owner/manager  told us "you can check out and check in somewhere else!" They don't care Motel 6 should yank their franchise.They said if we needed extra blankets or pillows for the fold out couch, Walmart is  around the corner. Wanted us to pay for another room, said that we weren't allowed to have more than one adult per bed so that would mean you can't have more than three adults in the room and that was the fire code for Galveston when you tried to speak to him they barely spoke English if they smoke it at all.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r532123662-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
-    <t>55879</t>
-  </si>
-  <si>
-    <t>277887</t>
-  </si>
-  <si>
     <t>532123662</t>
   </si>
   <si>
@@ -219,7 +261,46 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r504587508-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>504587508</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>GALVESTON, OH GALVESTON....</t>
+  </si>
+  <si>
+    <t>We found most of the accommodation in Galveston more expensive than what we found elsewhere in our travels. This motel is well located, close to the beach, opposite supermarket and other food places, with a large carpark. Off the main road, so quiet at night. I guess it was ok for what was offered, however.. the room was not very clean and needs a good spring clean. Everything worked and there were no real issues.. it was ok... Breakfast provided with the usual fare..</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r499968370-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>499968370</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Looks nice from the outside...</t>
+  </si>
+  <si>
+    <t>...but, once we entered the room, we noticed a terrible musty smell, stained comforter, and a bug crawling down the wall. We asked for a refund, which was easily obtained, and  went on our way down to the next hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Galveston - Seawall, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>...but, once we entered the room, we noticed a terrible musty smell, stained comforter, and a bug crawling down the wall. We asked for a refund, which was easily obtained, and  went on our way down to the next hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r499365039-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
@@ -291,6 +372,51 @@
     <t>Place was nice room was Aweful portion of floor was wet from air conditioner complained to front desk was sorta fix then it dripped all night making it even wetter complained on checkout desk clerk  was not concerned.Locaton was fairMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r465559435-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>465559435</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>An overpriced absolute dump</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels in the United States and abroad.  I have never stayed in one this bad inside the continental United States.  It reminded me of a hotel I had to stay in once in Northeastern Guatemala that I payed $5 a night for.  But THIS one cost us $150 for one night and it was awful.  Everything is dated and dumpy.  Our room did not even have a phone.  It was a bed and a shower and for what was provided should have been no more than $40.  I am disgusted I did not do more research into this place before we booked it.  But it left a very bad taste in my mouth not just for the hotel but for all of Galveston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Galveston - Seawall, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels in the United States and abroad.  I have never stayed in one this bad inside the continental United States.  It reminded me of a hotel I had to stay in once in Northeastern Guatemala that I payed $5 a night for.  But THIS one cost us $150 for one night and it was awful.  Everything is dated and dumpy.  Our room did not even have a phone.  It was a bed and a shower and for what was provided should have been no more than $40.  I am disgusted I did not do more research into this place before we booked it.  But it left a very bad taste in my mouth not just for the hotel but for all of Galveston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r452644894-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>452644894</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Nice location</t>
+  </si>
+  <si>
+    <t>The location is perfect. You can walk to randalls, starbooks, walmart, restaurants, etc, and of course, the beach. The motel is ok, need more cleaning and repairs of walls, outside paint, etc. But in general, the rooms are big and comfortable, with a micro-fridge in. The blanket was smelly and I ask front desk to change it; they said that only have one per room but they pick it up and washed it for us. More cleaning will be great.  Good for the money. The best of all for me, they accept pets (free).</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r447878833-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -306,9 +432,6 @@
     <t>the bed linen had not been changed, it had brown stains on it,,floor boards around the room were peeling paint all over the floor, remote control didnt work, no pillow cases,  outside in the parking lot was littered everywhere with trash.  i requested a room with  beds to have room to lay things out,,the manager suspiciously questioned me as though i was sneaking other people in.  The mattress on both beds were terribly stained and smelled.  i had a pet, and he repeatedly told me the pet policy and had me sign a statement that i knew the pet policy.  I DO NOT RECOMMEND THIS MOTEL...I only stayed there after requesting a linen change on the bed.MoreShow less</t>
   </si>
   <si>
-    <t>December 2016</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -354,6 +477,45 @@
     <t>I booked my room as a 2 queen deluxe room 2months prior to my stay directly with Motel 6.com. Upon my arrival I was told there wasn't anything other than a king bed room with pullout full sofa sleeper or the same without a locking door or a/c unit. After showing my reservation to the clerk she said she would give me another guests reserved room since they weren't coming in until later. Even though I am disabled and they don't have an elevator I had no other alternative but to take the room she offered. Needless to say we would have been better off sleeping in my car! The room was dirty, no fire alarm &amp; exposed wires, beds were hard and mattresses were horribly used, pillows were flat, towels were pint sized &amp; rough, bugs (flying grasshoppers &amp; waterbugs), and to top everything off the front staff in the morning was rude &amp; completely disrespectful. I called the Motel 6 customer service line and got the run around because this location is a franchise, which was completely unacceptable. Never again, not even for 1 night will I recommend or book anything linked to the Motel 6 name! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r408920201-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>408920201</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Ok for the price</t>
+  </si>
+  <si>
+    <t>This wasn't a fancy hotel.  They don't even have hairdryers in the room, but there was a fridge and microwave. Most of the staff I interacted with were nice.  It seemed clean enough, though, and we were wanting an inexpensive room for 2 nights prior to a cruise.  For about $40 per night, including tax, this fit the bill.  I do realize, however, that this is much lower than their normal rate.  We are going to Galveston, again, next year, but won't be staying here.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r383846046-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>383846046</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE EXPERIENCE, MADE US SICK, WE GOT UPPER RESPIRATORY INFECTION!!!</t>
+  </si>
+  <si>
+    <t>For starters, we got there, and the TV was a tube TV with an old vcr attachement.  Didn't work for over two days as they could not make the remote talk to the TV, nor could we change channels or volume via., the conventional TV controls.  Limited WI-FI service, and to our main point...The air conditioner leaked water all over our floor, causing mold and mildew buildup, which we didn't notice as our room was large with a hide-a-bed couch, as it was just me and my husband we walked mainly in the area around our bed and the door entry, not until later when we went to check on the ac controls did we notice how wet the floor was. At that point we discovered that the floor was wet in a 3 ft. circumference all around the ac unit.  As it was our vacation we were gone all day, every day we were there and only slept there at night, so this issue went unnoticed until the fourth day when I woke up sick / really sick.  We are home now, been home 10 days, I'm close to full recovery but my husband is still fighting a serious lung infection, he is on amoxicillin and getting better every day but a HORRIBLE ordeal we went through!!!!  Not to mention we cut our vacation short because of this!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>For starters, we got there, and the TV was a tube TV with an old vcr attachement.  Didn't work for over two days as they could not make the remote talk to the TV, nor could we change channels or volume via., the conventional TV controls.  Limited WI-FI service, and to our main point...The air conditioner leaked water all over our floor, causing mold and mildew buildup, which we didn't notice as our room was large with a hide-a-bed couch, as it was just me and my husband we walked mainly in the area around our bed and the door entry, not until later when we went to check on the ac controls did we notice how wet the floor was. At that point we discovered that the floor was wet in a 3 ft. circumference all around the ac unit.  As it was our vacation we were gone all day, every day we were there and only slept there at night, so this issue went unnoticed until the fourth day when I woke up sick / really sick.  We are home now, been home 10 days, I'm close to full recovery but my husband is still fighting a serious lung infection, he is on amoxicillin and getting better every day but a HORRIBLE ordeal we went through!!!!  Not to mention we cut our vacation short because of this!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r381251435-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -369,9 +531,6 @@
     <t>Bathroom smelled like urine. Worker offered to transfer to another room which was outdated and the sofa in that room looked like death. When I pulled back the comforter, the other blanket was full of holes. We ended up cleaning the bathroom ourself and the urine stench was still strong. We were unable to control thermostat on AC. We could only turn it up. It wouldn't turn down or the heat would come on. The towels and wash cloths were very hard and rough on the skin. The iron was filthy. When I talked to the manager that morning, he denied the urine smell and denied any type of apology or compensation for our horrific experience. He only supplied excuses just as the worker did the night before.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>Bathroom smelled like urine. Worker offered to transfer to another room which was outdated and the sofa in that room looked like death. When I pulled back the comforter, the other blanket was full of holes. We ended up cleaning the bathroom ourself and the urine stench was still strong. We were unable to control thermostat on AC. We could only turn it up. It wouldn't turn down or the heat would come on. The towels and wash cloths were very hard and rough on the skin. The iron was filthy. When I talked to the manager that morning, he denied the urine smell and denied any type of apology or compensation for our horrific experience. He only supplied excuses just as the worker did the night before.More</t>
   </si>
   <si>
@@ -408,6 +567,42 @@
     <t>WORST EXPERIENCE EVER!!! After paying $100 night over the Memorial Day weekend we had to leave a day early. This hotel is completely disgusting due to management and housekeeping. Housekeeping did nothing for our rooms the first night and the following day we requested new towels and rooms to be cleaned. Gone all day and returned to 1 of our 2 rooms at 4pm just being vacuumed but nothing picked up just vacuumed around. we pulled sheets off bed and requested they be changed due to a few stains and they put them right back on. Pictures taken so we knew they did that.. They did not replace our towels or TP (4pm after beach we wanted a shower and use the bathroom but couldn't) so we asked for this and questioned the cleaning of the room since there was nothing done to one of them and only quick vacuum to the other and they argued and ordered us to leave. We asked if we could just get the sheets and towels and TP and do ourselves so we could finish our vacation, and were told we had to check out now... I have traveled for work pleasure etc. and never been treated like this ever. I wasn't expecting fine hotel style but at least basic housekeeping... Very Disgusting and I would take the Motel 6 name off if I was in charge in corporate. Rather Sleep in my carMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r375977641-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>375977641</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Convenient location, easy parking, ok for the price, but smells of mold/mildew</t>
+  </si>
+  <si>
+    <t>Check in was delayed a couple of times since the hotel had been full for the weekend and we were trying to check in at noon on Sunday, but no clean rooms yet.  We just wandered about and came back a couple of times.  Finally checked in about 4pm.  The pool did look inviting but we left to eat supper instead.  Saw complaints of mildew, and some not, so perhaps just certain rooms?  Possibly the hotel had just pulled out alot of carpet as we saw a ton of it in back by the dumpsters, so maybe part of the mildew complaints.  We were downstairs next to the office.  I think the moldy smell was the upholstered sofa, but I did notice that the floor was wet under the window.  It had poured rain earlier in the day.  All seemed fairly clean, except the laminate wood floor hadn't been mopped, my bare feet got pretty dirty.  Good supply of towels and clothes, they looked new.  The king bed was good, except regular pillows, and worn sheets.  Coastal hotels seem to have issues with mildew from the damp sea air and I would imagine that these type of properties would be harder to maintain with the salty sand that can be drug in along with the crazy things that can happen with people drinking and having fun at the beach!  Wifi was decent.  Coffee offered in the morning in the lobby...Check in was delayed a couple of times since the hotel had been full for the weekend and we were trying to check in at noon on Sunday, but no clean rooms yet.  We just wandered about and came back a couple of times.  Finally checked in about 4pm.  The pool did look inviting but we left to eat supper instead.  Saw complaints of mildew, and some not, so perhaps just certain rooms?  Possibly the hotel had just pulled out alot of carpet as we saw a ton of it in back by the dumpsters, so maybe part of the mildew complaints.  We were downstairs next to the office.  I think the moldy smell was the upholstered sofa, but I did notice that the floor was wet under the window.  It had poured rain earlier in the day.  All seemed fairly clean, except the laminate wood floor hadn't been mopped, my bare feet got pretty dirty.  Good supply of towels and clothes, they looked new.  The king bed was good, except regular pillows, and worn sheets.  Coastal hotels seem to have issues with mildew from the damp sea air and I would imagine that these type of properties would be harder to maintain with the salty sand that can be drug in along with the crazy things that can happen with people drinking and having fun at the beach!  Wifi was decent.  Coffee offered in the morning in the lobby but we left earlier.  We booked this room for the price and it worked ok for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was delayed a couple of times since the hotel had been full for the weekend and we were trying to check in at noon on Sunday, but no clean rooms yet.  We just wandered about and came back a couple of times.  Finally checked in about 4pm.  The pool did look inviting but we left to eat supper instead.  Saw complaints of mildew, and some not, so perhaps just certain rooms?  Possibly the hotel had just pulled out alot of carpet as we saw a ton of it in back by the dumpsters, so maybe part of the mildew complaints.  We were downstairs next to the office.  I think the moldy smell was the upholstered sofa, but I did notice that the floor was wet under the window.  It had poured rain earlier in the day.  All seemed fairly clean, except the laminate wood floor hadn't been mopped, my bare feet got pretty dirty.  Good supply of towels and clothes, they looked new.  The king bed was good, except regular pillows, and worn sheets.  Coastal hotels seem to have issues with mildew from the damp sea air and I would imagine that these type of properties would be harder to maintain with the salty sand that can be drug in along with the crazy things that can happen with people drinking and having fun at the beach!  Wifi was decent.  Coffee offered in the morning in the lobby...Check in was delayed a couple of times since the hotel had been full for the weekend and we were trying to check in at noon on Sunday, but no clean rooms yet.  We just wandered about and came back a couple of times.  Finally checked in about 4pm.  The pool did look inviting but we left to eat supper instead.  Saw complaints of mildew, and some not, so perhaps just certain rooms?  Possibly the hotel had just pulled out alot of carpet as we saw a ton of it in back by the dumpsters, so maybe part of the mildew complaints.  We were downstairs next to the office.  I think the moldy smell was the upholstered sofa, but I did notice that the floor was wet under the window.  It had poured rain earlier in the day.  All seemed fairly clean, except the laminate wood floor hadn't been mopped, my bare feet got pretty dirty.  Good supply of towels and clothes, they looked new.  The king bed was good, except regular pillows, and worn sheets.  Coastal hotels seem to have issues with mildew from the damp sea air and I would imagine that these type of properties would be harder to maintain with the salty sand that can be drug in along with the crazy things that can happen with people drinking and having fun at the beach!  Wifi was decent.  Coffee offered in the morning in the lobby but we left earlier.  We booked this room for the price and it worked ok for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r374705741-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>374705741</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Won't STAY there again!</t>
+  </si>
+  <si>
+    <t>The mattress, the sofa, and the carpet were saturated with cigarette smoke, even though signs signify it was a no smoking room. The accessible shower had a handheld sprayer that was broken squirting water even if you weren't using it.  It also had mold and mildew on it. The pool had biting ants floating around that would attach to one's body. The handrail was broken and unsafe. The price varied from customer to customer. Had to have a second bath in the morning to remove the smell of smoke from one's body but all our items carried the stench into the car. No complimentary breakfast. Did have a refrigerator and a microwave in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>The mattress, the sofa, and the carpet were saturated with cigarette smoke, even though signs signify it was a no smoking room. The accessible shower had a handheld sprayer that was broken squirting water even if you weren't using it.  It also had mold and mildew on it. The pool had biting ants floating around that would attach to one's body. The handrail was broken and unsafe. The price varied from customer to customer. Had to have a second bath in the morning to remove the smell of smoke from one's body but all our items carried the stench into the car. No complimentary breakfast. Did have a refrigerator and a microwave in the room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r356829129-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -462,6 +657,45 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r320203669-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>320203669</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Weekend at Galveston</t>
+  </si>
+  <si>
+    <t>We read the reviews and were prepared for the WORST. Well, we had a totally different experience.  Checked in 1.5 hours early. Clean room, new sheets, fridge and microwave, no smells, hot showers, clean, clean, clean. They are the only place with 2 smoking rooms I. Galveston, so if you e joy an after dinner cigarette or cigar, you must stay here.  All other places are no smoking properties; therefore, you must leave property completely to have  smoke. We stayed 2 nights. Room was cleaned by 10:15 a.m. Breakfast of cereal, pastries, toast, coffee oj, milk from 7-9 a.m. Great stay for 2 days&amp; 2 nights. Very friendly, courteous, English speaking front desk gentleman. Will stay here again. Cheapest place here. Walmart,  beach, fishing pier w/i walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We read the reviews and were prepared for the WORST. Well, we had a totally different experience.  Checked in 1.5 hours early. Clean room, new sheets, fridge and microwave, no smells, hot showers, clean, clean, clean. They are the only place with 2 smoking rooms I. Galveston, so if you e joy an after dinner cigarette or cigar, you must stay here.  All other places are no smoking properties; therefore, you must leave property completely to have  smoke. We stayed 2 nights. Room was cleaned by 10:15 a.m. Breakfast of cereal, pastries, toast, coffee oj, milk from 7-9 a.m. Great stay for 2 days&amp; 2 nights. Very friendly, courteous, English speaking front desk gentleman. Will stay here again. Cheapest place here. Walmart,  beach, fishing pier w/i walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r310898023-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>310898023</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Don't use credit card</t>
+  </si>
+  <si>
+    <t>Was the worst hotel by far we stayed in on our trip to the States, and to add insult to injury, was ripped off to the tune of $195 on my creit card. Tried unsuccessfully  to get reimbursed by manager, who said he would but never did, the booking  site and the hotel chain whom said they were not part of their group.Watch  out the manager is a crook.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r310816025-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -516,7 +750,43 @@
     <t>This place does not even deserve a terrible rating it is disgusting.  Do Not stay at this hotel.  It will ruin your trip.  As you can see from the pictures enclosed the shower curtain was dirty and stained with discoloration.  The sink stopped up with a simple hand washing and took hours to drain.  The blanket on the bed had a huge burn in it.  The refrigerator was so iced up the door would not close, therefore, we could not utilize it.  And, last but not least the lamp by the bed had a hole in the lamp shade.</t>
   </si>
   <si>
-    <t>August 2015</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r294853234-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>294853234</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>America's worst smelling inn little rusty hotel of horror</t>
+  </si>
+  <si>
+    <t>I wouldn't even rate it a whole star. Gag I couldn't even eat in the first room that they gave us. I was in a rush online &amp; got this one mixed up with another hotel. Even more of a mistake to check-in when the parking lot was empty. I wouldn't say I was expecting a luxury hotel or even a motel 6. I was expecting a hourly-rate type of motel atmosphere. Oh it was more of a truck stop hotel in an abandoned town. The couch was stained with blood I guess someone's seawall hooker started her period.  Seems like they didn't do much to repair after Ike maybe just some patchwork. How did they pass inspection? This place has way more potential with a thorough caffeine induced cleaning and a huge renovation. Besides being behind a cemetery that was clearly damaged by Ike this hotel is within walking distance to the beach. The manager wasn't rude, and the morning shift front desk girl was polite. The evening shift front desk girl was very rude, but maybe rightfully so. Who could possibly be happy in a work environment like that? You really can't get more detailed, than that. ^^^ Smell an old can of beer you left on your porch after a party and that's pretty descriptive of the smell of this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I wouldn't even rate it a whole star. Gag I couldn't even eat in the first room that they gave us. I was in a rush online &amp; got this one mixed up with another hotel. Even more of a mistake to check-in when the parking lot was empty. I wouldn't say I was expecting a luxury hotel or even a motel 6. I was expecting a hourly-rate type of motel atmosphere. Oh it was more of a truck stop hotel in an abandoned town. The couch was stained with blood I guess someone's seawall hooker started her period.  Seems like they didn't do much to repair after Ike maybe just some patchwork. How did they pass inspection? This place has way more potential with a thorough caffeine induced cleaning and a huge renovation. Besides being behind a cemetery that was clearly damaged by Ike this hotel is within walking distance to the beach. The manager wasn't rude, and the morning shift front desk girl was polite. The evening shift front desk girl was very rude, but maybe rightfully so. Who could possibly be happy in a work environment like that? You really can't get more detailed, than that. ^^^ Smell an old can of beer you left on your porch after a party and that's pretty descriptive of the smell of this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r292824404-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>292824404</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>America's WORST Inn &amp; Suites</t>
+  </si>
+  <si>
+    <t>It pains me to write this. All of my reviews are usually telling you how amazing something is, but I want to keep you from wasting money!!!  The main office was slow....  and requires a deposit for the room key!! How the hell else am I going to get in my room?  The room was dirty, the smoke alarm was hanging from wires on the ceiling, the TV remote didn't work, the microwave didn't work, the bed was lumpy, the pillows were completely flat and the sheets and blankets had holes in them. Thankfully we were only there one night waiting to depart for a cruise. It was so bad, none of my family members even wanted to shower in the bathroom.  We all waited until we were on the ship!  For the $180 I spent, I was gravely disappointed.  Usually I don't care so much about decor being outdated, carpet being old, the kinds of things people usually complain about. Unfortunately, this hotel was stark white, no pictures... just filth.  I try to have SOMETHING positive to say about everyplace I review.  So, it is close to a Walmart and the beach.  It is not very noisy because it is not right on Seawall Blvd.  It is behind other buildings so there is no view of the water.  If this is the cheapest hotel you can find near the beach &amp; you can tolerate a dirty room, this is...It pains me to write this. All of my reviews are usually telling you how amazing something is, but I want to keep you from wasting money!!!  The main office was slow....  and requires a deposit for the room key!! How the hell else am I going to get in my room?  The room was dirty, the smoke alarm was hanging from wires on the ceiling, the TV remote didn't work, the microwave didn't work, the bed was lumpy, the pillows were completely flat and the sheets and blankets had holes in them. Thankfully we were only there one night waiting to depart for a cruise. It was so bad, none of my family members even wanted to shower in the bathroom.  We all waited until we were on the ship!  For the $180 I spent, I was gravely disappointed.  Usually I don't care so much about decor being outdated, carpet being old, the kinds of things people usually complain about. Unfortunately, this hotel was stark white, no pictures... just filth.  I try to have SOMETHING positive to say about everyplace I review.  So, it is close to a Walmart and the beach.  It is not very noisy because it is not right on Seawall Blvd.  It is behind other buildings so there is no view of the water.  If this is the cheapest hotel you can find near the beach &amp; you can tolerate a dirty room, this is your place.  If you can find it, literally anything else would be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>It pains me to write this. All of my reviews are usually telling you how amazing something is, but I want to keep you from wasting money!!!  The main office was slow....  and requires a deposit for the room key!! How the hell else am I going to get in my room?  The room was dirty, the smoke alarm was hanging from wires on the ceiling, the TV remote didn't work, the microwave didn't work, the bed was lumpy, the pillows were completely flat and the sheets and blankets had holes in them. Thankfully we were only there one night waiting to depart for a cruise. It was so bad, none of my family members even wanted to shower in the bathroom.  We all waited until we were on the ship!  For the $180 I spent, I was gravely disappointed.  Usually I don't care so much about decor being outdated, carpet being old, the kinds of things people usually complain about. Unfortunately, this hotel was stark white, no pictures... just filth.  I try to have SOMETHING positive to say about everyplace I review.  So, it is close to a Walmart and the beach.  It is not very noisy because it is not right on Seawall Blvd.  It is behind other buildings so there is no view of the water.  If this is the cheapest hotel you can find near the beach &amp; you can tolerate a dirty room, this is...It pains me to write this. All of my reviews are usually telling you how amazing something is, but I want to keep you from wasting money!!!  The main office was slow....  and requires a deposit for the room key!! How the hell else am I going to get in my room?  The room was dirty, the smoke alarm was hanging from wires on the ceiling, the TV remote didn't work, the microwave didn't work, the bed was lumpy, the pillows were completely flat and the sheets and blankets had holes in them. Thankfully we were only there one night waiting to depart for a cruise. It was so bad, none of my family members even wanted to shower in the bathroom.  We all waited until we were on the ship!  For the $180 I spent, I was gravely disappointed.  Usually I don't care so much about decor being outdated, carpet being old, the kinds of things people usually complain about. Unfortunately, this hotel was stark white, no pictures... just filth.  I try to have SOMETHING positive to say about everyplace I review.  So, it is close to a Walmart and the beach.  It is not very noisy because it is not right on Seawall Blvd.  It is behind other buildings so there is no view of the water.  If this is the cheapest hotel you can find near the beach &amp; you can tolerate a dirty room, this is your place.  If you can find it, literally anything else would be better.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r292819671-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
@@ -525,18 +795,12 @@
     <t>292819671</t>
   </si>
   <si>
-    <t>07/26/2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Worse smelly dirty </t>
   </si>
   <si>
     <t>Wifi is sooo slow, called front desk &amp; said it may be my device,but I have more than 4 devices with me the wifi is not working ... it works so slow then it just stops!!! The room smells like URINE and they tried to cover up the dirty toilet with spray paint. It did not dry properly  and white paint got stuck on my 5 year olds butt. There is pink mold around the shower head. The carpet is filthy... the rooms are not properly cleaned. There is rust on the appliances. Bubble butt  t.v like the 90s. Iit is not worth the money... will never  stay here again!!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>Wifi is sooo slow, called front desk &amp; said it may be my device,but I have more than 4 devices with me the wifi is not working ... it works so slow then it just stops!!! The room smells like URINE and they tried to cover up the dirty toilet with spray paint. It did not dry properly  and white paint got stuck on my 5 year olds butt. There is pink mold around the shower head. The carpet is filthy... the rooms are not properly cleaned. There is rust on the appliances. Bubble butt  t.v like the 90s. Iit is not worth the money... will never  stay here again!!!More</t>
   </si>
   <si>
@@ -576,6 +840,42 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r284025951-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>284025951</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>NOT a luxury location</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights.  It is definitely  not a luxury hotel, but it is a great location. Kroger, WalMart, Starbucks &amp; restaurant's are just minutes away.It's a short walk to the seawall. We could see the water (and the cemetery) from our 2nd floor room. Yes, the towels are scratchy. There was only one roll of toilet paper provided.  There was NO housekeeping service provided during our stay. The continental breakfast is basic - 2 choices of cereal, a loaf of bread, package muffins or honey buns. The room is not fancy but the wifi, tv, and AC worked. There is a pool on the property. The photos provided by the management of the facility are not a true representation. - This wouldn't be my first choice of places to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here 2 nights.  It is definitely  not a luxury hotel, but it is a great location. Kroger, WalMart, Starbucks &amp; restaurant's are just minutes away.It's a short walk to the seawall. We could see the water (and the cemetery) from our 2nd floor room. Yes, the towels are scratchy. There was only one roll of toilet paper provided.  There was NO housekeeping service provided during our stay. The continental breakfast is basic - 2 choices of cereal, a loaf of bread, package muffins or honey buns. The room is not fancy but the wifi, tv, and AC worked. There is a pool on the property. The photos provided by the management of the facility are not a true representation. - This wouldn't be my first choice of places to stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r282647693-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>282647693</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>DONT BOTHER</t>
+  </si>
+  <si>
+    <t>First of all I paid for a king suite and was given a completely different room. Somehow the air surrounding the whole place smelled like stale beer. The lobby is nothing like pictured and the employees were rude. The whole atmosphere was depressing. Cut to the room and you're met with a gross odor, a sub par room NOT AT ALL like we paid for, mold and stains everywhere, and dead cockroaches. I went for a refund and they rufused to give me a full refund, and charged me $85. It was worth it ultimately to get outa there. Went went behind the hotel and got 3 nights at Baymont Inn for $50 extra dollars and got wonderful customer service, 2 king beds, and all the amenities you can hope for. Don't. Bother. With this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all I paid for a king suite and was given a completely different room. Somehow the air surrounding the whole place smelled like stale beer. The lobby is nothing like pictured and the employees were rude. The whole atmosphere was depressing. Cut to the room and you're met with a gross odor, a sub par room NOT AT ALL like we paid for, mold and stains everywhere, and dead cockroaches. I went for a refund and they rufused to give me a full refund, and charged me $85. It was worth it ultimately to get outa there. Went went behind the hotel and got 3 nights at Baymont Inn for $50 extra dollars and got wonderful customer service, 2 king beds, and all the amenities you can hope for. Don't. Bother. With this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r272855309-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -633,6 +933,39 @@
     <t>The room was disgusting, the refrigerator didn't cool down. The beds aHad horrible mattress woke up hobbling and I'm 24. Flat pillows a leaking ceiling, stayed during a storm and had water all by the door. Missing a drawer out of the tv stand. The dryer sounded like it was about to explode. The carpets are disgusting white spots everywhere. The bathroom doesn't look like it's been mopped. Probably harboring foot funguses. Towels feel like sandpaper. But the people were nice. Our battery died on our door and couldn't get it. They had it fixed fast. Their idea of a free breakfast is a muffin and a free honeybun. Mirror is crooked. Ac smelled like crap. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r262529788-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>262529788</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Outdated  </t>
+  </si>
+  <si>
+    <t>My husband  booked this hotels as a last minute  getaway. Its not the worst hotel  we ever stayed at, but it needs a good deep clean on flooring/walls. It looks like the hand me downs from other old hotels thru out the years. Would i stay here again? No I wouldnt .</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r258378388-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>258378388</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Walked in to find two outdated TVs, one didn't work, was just stored there. You could see daylight through the door, the fire alarm was hanging out of the wall, dead cockroach by the door, cigarette burns in the pillow case, hot water did not last through the shower and dirty hair dryer.  Also the room did not have a mini fridge, microwave or coffee pot.  We discovered that they provide The Teachings of Buddha instead of the bible. Don't walk around bare footed, the floor is disgusting. If you feel the need for ice, buy your own unless you want to drink slime.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r232421184-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -684,6 +1017,42 @@
     <t>Upon entering the room I found myself smashing the bugs all over the floor and walls. Spider on the pillow. Roach in the corner. The sheets were clean so I decided to give it a shot, but after an hour of the air conditioner not working I bailed. Don't make this mistake unless you like a humid, bug-filled night.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r219345406-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>219345406</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel ever!</t>
+  </si>
+  <si>
+    <t>So, my fault for booking here, but it was a last minute decision for a weekend getaway- Being that it is the middle of the summer the other hotels were close to $500 and more for 2 nights- This one was a little over $300 for 2 nights- $300 over priced- Very run down- we checked in late 10pm and they were aware of the late arrival- we walked into the room, and the a/c was not turned on- Middle of summer in TX the room was unbearable- took about 2 h for the room to cool down once the unit was turned on- The bathroom door must have had a small incline as it was a struggle to close the door- it needs to be shaved off on the bottom for it to close- the pillows were about 2 inches thick at the most- the building is in poor disrepair- we were just hopeful that when we woke up the next morning that our car would still be there. There was apparently supposed to be free wifi, but it never worked, had to "borrow" from the hotel next door- lesson learned- you get what you pay for and in the middle of the summer in Galveston plan a little in advance!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>So, my fault for booking here, but it was a last minute decision for a weekend getaway- Being that it is the middle of the summer the other hotels were close to $500 and more for 2 nights- This one was a little over $300 for 2 nights- $300 over priced- Very run down- we checked in late 10pm and they were aware of the late arrival- we walked into the room, and the a/c was not turned on- Middle of summer in TX the room was unbearable- took about 2 h for the room to cool down once the unit was turned on- The bathroom door must have had a small incline as it was a struggle to close the door- it needs to be shaved off on the bottom for it to close- the pillows were about 2 inches thick at the most- the building is in poor disrepair- we were just hopeful that when we woke up the next morning that our car would still be there. There was apparently supposed to be free wifi, but it never worked, had to "borrow" from the hotel next door- lesson learned- you get what you pay for and in the middle of the summer in Galveston plan a little in advance!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r218185688-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>218185688</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Worst place ever!!</t>
+  </si>
+  <si>
+    <t>We paid 100 a night and thought it couldn't be to bad main reason we had selected that hotel was because of location. The location is probably the only good thing about this hotel . The phones don't work there is no breakfast there's rust on every single door the rooms stink and there's holes on some walls along with just stains everything seems to be broken or about to break.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r212711919-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -738,6 +1107,45 @@
     <t>The only plus about this hotel is the location. It is close to the Historic Pier 61 . If you were wanting to fish and then just have a place to sleep and shower that was cheap this is for you. I would say it is slightly better than sleeping in a hunting lodge. The blankets had stains on them . The floor was dirty. Our room was behind the hotel which made it great for walking to the pier but it was also directly behind a cemetery. Creepy! The room was not sound proof at all and we had a hard time sleeping because of the loud seagulls that sounded like they were taking up residence right outside our door. It is at the bottom of a large hilly driveway and I'm sure it was the first to flood during the hurricane . The weird thing is , I don't think they replaced anything. I think they just cleaned it off. Which was probably the last time any of the rooms had seen a through cleaning ! We booked through booking.com and after the first night we decided to just spend the money and get a nicer hotel. I was lucky enough to get two rooms at the Quality Inn (which seemed like Buckingham Palace after staying here) but when I went to check out the clerk told me I had to cancel through booking.com. I called them from...The only plus about this hotel is the location. It is close to the Historic Pier 61 . If you were wanting to fish and then just have a place to sleep and shower that was cheap this is for you. I would say it is slightly better than sleeping in a hunting lodge. The blankets had stains on them . The floor was dirty. Our room was behind the hotel which made it great for walking to the pier but it was also directly behind a cemetery. Creepy! The room was not sound proof at all and we had a hard time sleeping because of the loud seagulls that sounded like they were taking up residence right outside our door. It is at the bottom of a large hilly driveway and I'm sure it was the first to flood during the hurricane . The weird thing is , I don't think they replaced anything. I think they just cleaned it off. Which was probably the last time any of the rooms had seen a through cleaning ! We booked through booking.com and after the first night we decided to just spend the money and get a nicer hotel. I was lucky enough to get two rooms at the Quality Inn (which seemed like Buckingham Palace after staying here) but when I went to check out the clerk told me I had to cancel through booking.com. I called them from the office and they said that the owner had to agree to let us leave early without charging us. This was news to me! I will definitely be more careful when booking with them next time. The owner wasn't happy but he did let us check out. I know it was only ranked a 5 on Trip Advisor but I thought for the price it would be fine . The web sight makes it look much better than what it actually is. The pool is tiny and was closed while we were there and breakfast is just a small packaged muffin and Tang. If this is all you can afford in Galveston, I would say do it but if you can spend more, this is definitely a case of " you get what you pay for!"More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r191371336-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>191371336</t>
+  </si>
+  <si>
+    <t>01/19/2014</t>
+  </si>
+  <si>
+    <t>Dirt!Dirty!Dirty!</t>
+  </si>
+  <si>
+    <t>Where can I start?Called 888-315-2378 (Reservations) and was told the address to hotel.They told me it was 6302 Seawall Blvd. We arrive and try to check in and the front desk clerk tells us we are in the wrong hotel. Find out there is another hotel in the back of this one with almost the same name minus the "Americas". We ended up at Best Value Inn and Suites on Central City Blvd.We walked in the lobby and already had regrets by the smells.Checked into room after nearly having to kick the door in. Again bad smells. The room defintely needed a cleaning crew. Bathroom was filthy,Every wall had some kind of stain on it. Shower curtain was dirty.Carpet had not been cleaned behind the night stand .All the outlets were dirty.Beds were also dirty. I could go on but I wanted to express some concerns of why I will not to do business at this place during future trips. As a fair warning, Check the name and address for these 2 hotels that are back to back. To make it easyBest Value Inn and Suites Central City Blvd=  PoorAmericas Best Value Inn Seawall Blvd.= Good (Fairly new)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Where can I start?Called 888-315-2378 (Reservations) and was told the address to hotel.They told me it was 6302 Seawall Blvd. We arrive and try to check in and the front desk clerk tells us we are in the wrong hotel. Find out there is another hotel in the back of this one with almost the same name minus the "Americas". We ended up at Best Value Inn and Suites on Central City Blvd.We walked in the lobby and already had regrets by the smells.Checked into room after nearly having to kick the door in. Again bad smells. The room defintely needed a cleaning crew. Bathroom was filthy,Every wall had some kind of stain on it. Shower curtain was dirty.Carpet had not been cleaned behind the night stand .All the outlets were dirty.Beds were also dirty. I could go on but I wanted to express some concerns of why I will not to do business at this place during future trips. As a fair warning, Check the name and address for these 2 hotels that are back to back. To make it easyBest Value Inn and Suites Central City Blvd=  PoorAmericas Best Value Inn Seawall Blvd.= Good (Fairly new)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r179714430-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>179714430</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>FILTHY!</t>
+  </si>
+  <si>
+    <t>Black mold in tub/shower. Un-laundered stains on sheets, along with hair. Pillows smelled like oily skin. Carpet was filthy, walls had what appeared to be blood stained finger prints (smeared). We arrived at 1:30am, only needed to stay until our cruise ship let in the morning. Their breakfast consisted of 2 different cellophane wrapped donuts and coffee. No milk or juices or cereal. I will NEVER stay there again. There's also a $5.00 cash deposit on the key card. Nasty place! Don't let the front to this run down place fool you!!!!</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r173073399-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -786,6 +1194,39 @@
     <t>This is the nastiest hotel I have been in, why is it still open ? The roaches creeped me out crawling on wall, couldn't even sleep , no cable tv,only had five channels, rusty doors,nasty blankets .etc.GROSS</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r170262621-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>170262621</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Truly awful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The good thing...there's a bed. The bad thing....I really have no idea if its clean. I'm not one if these people that get grossed out by hotel rooms and what goes on in them but this place is pretty disgusting. The doors are rusted, there are gouge marks in the walls, when you turn off the AC unit it leaks water like a faucet for about 5 minutes, I can count the springs in the mattresses, and it doesn't look like some of the surfaces have been wiped down in a while. It's cheap.....but NOT a value. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r167992572-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>167992572</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Great Value For Your Money</t>
+  </si>
+  <si>
+    <t>This motel offers you great value for your money.  It has excellent quiet location close to the beach, restaurants, and shopping.  The breakfast is not very good but with the money you save by staying here you can have breakfast and dinner outside every day and still be financially better off than paying double somewhere else.  There is an outside swimming pool which is very clean.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r165262980-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -840,6 +1281,36 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r161749484-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>161749484</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>We checked in and I found that the cover blanket had a fresh "wipe" on the outside of snot on the side. I advised the staff or said it would be 3 hours for a cleaning. Gave me a new room instead and found that they had reused the styrofoam cups because it had jokes in it and it was wet. They ended up refunding our money but only because I complained. The doors were rusted that take you out to the balconies and the bed mattresses were expired by years. Nasty!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r159940050-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>159940050</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Dark, dreary and depressing</t>
+  </si>
+  <si>
+    <t>Carpet was new and the bed was reasonably comfortable.  Everything else was a lie or just did not work as advertised.  Full Hot breakfast?  What a joke, thank God for McDonalds.   Free Wifi?  Yep, if you stand next to the front desk in the Lobby.  There are Safes in the room and the crooked management charges you a dollar a day extra for the safe., they just don't bother to tell you this until you check out.   You have a lot of options in Galveston, DON'T Choose this one.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r159298907-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -892,6 +1363,54 @@
   </si>
   <si>
     <t>This was the worst experience ever! After we notified the night manager that our room smelled like vomit and there were stains on the floor we were quite offended when he said that he didn't know if we had done that. Then he suggested that we stay in that room since he didn't have another double bed room. I told him I was not gonna sleep in that DISGUSTING room! He found another room with 1 bed. I told him we needed two beds, but he did not want to give us an additional room unless we paid for it. We could not afford that so we were forced to take one room with one bed for 4 people. Two adults slept on a hard cot. In addition to this, myself and one of the younger children awoke to bedbug bites all over our bodies. This hotel is nasty stay FAR AWAY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r128670198-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>128670198</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>Sucky Yucky Motel!!</t>
+  </si>
+  <si>
+    <t>The first sign should have been when it's a pay up front kind of place for 2 nights and also the curry smell in the lobby.  The tub &amp; toilet were not cleaned, The dirt was gathered in the corner by the bathroom door.  The hair dryer broke after trying to use it for 2 mins....complained to the front desk....up until we left it was never fixed.  The so called "continental breakfast" tasted like it's been there for weeks...the best thing was the OJ.  The sugar container was swollen &amp; cracked like if it was previously wet.  We eventually went to McDonalds to get something decent to eat. On the side of the hotel towards the pool, the wall was boarded up...not sure what took place there.  This hotel does nothing to give that sense of cleanliness.  Behind the beds seemed like they've never been vacuumed. I'm so happy I brought a sheet, blanket &amp; pillows to use.......will never recommend this placeMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The first sign should have been when it's a pay up front kind of place for 2 nights and also the curry smell in the lobby.  The tub &amp; toilet were not cleaned, The dirt was gathered in the corner by the bathroom door.  The hair dryer broke after trying to use it for 2 mins....complained to the front desk....up until we left it was never fixed.  The so called "continental breakfast" tasted like it's been there for weeks...the best thing was the OJ.  The sugar container was swollen &amp; cracked like if it was previously wet.  We eventually went to McDonalds to get something decent to eat. On the side of the hotel towards the pool, the wall was boarded up...not sure what took place there.  This hotel does nothing to give that sense of cleanliness.  Behind the beds seemed like they've never been vacuumed. I'm so happy I brought a sheet, blanket &amp; pillows to use.......will never recommend this placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r122994778-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>122994778</t>
+  </si>
+  <si>
+    <t>01/12/2012</t>
+  </si>
+  <si>
+    <t>Some interesting concerns..yet a good deal</t>
+  </si>
+  <si>
+    <t>Some concerns of the establishment about 3 blocks from the Sea Wall of Galveston.  I can see the reviews written beside mine as I type this statement and see they mirror my concerns very well! Not a good sign, for a nice building .Firstly , should have relised and gone elsewhere, was the very heavy curry smell on entering the reception and kids watching a TV  of Famiy Guy behind the counter. The sign hanging outside wa the draw card.. at $29.99 per night  it was almost unbeatable...if it was nicer it would be packed!! Starting off with the poor carpet conditions, looks like a person had gotten sick  and they never cleaned the carpet? Water taps loose , ipitted rusted and leaking and gotta love the sandpaper towels. Behind  the bed side tables, were filthy with dust,dirt and not certian of what else. Bathroom tiles wer dirty and the bath/shower floor was all wet  on arival, as if they had had a shower  and not cleaned the tub area?  Bonus a &gt;Swimming pool.. LMAO.. sorry but floating plastic bags and green with  algae growth,is not my idea of a nice cool dip! Continental breakfast was  a caraffe of juice a coffee pot and two covered trays of plastic wrapped pastrys.. &lt;age unknown!? .Pay about $10 more per night and  there is aplace right next door/behind that was very reasonable rate.. Can't hurt, or be much less clean!!  Good notes.....Some concerns of the establishment about 3 blocks from the Sea Wall of Galveston.  I can see the reviews written beside mine as I type this statement and see they mirror my concerns very well! Not a good sign, for a nice building .Firstly , should have relised and gone elsewhere, was the very heavy curry smell on entering the reception and kids watching a TV  of Famiy Guy behind the counter. The sign hanging outside wa the draw card.. at $29.99 per night  it was almost unbeatable...if it was nicer it would be packed!! Starting off with the poor carpet conditions, looks like a person had gotten sick  and they never cleaned the carpet? Water taps loose , ipitted rusted and leaking and gotta love the sandpaper towels. Behind  the bed side tables, were filthy with dust,dirt and not certian of what else. Bathroom tiles wer dirty and the bath/shower floor was all wet  on arival, as if they had had a shower  and not cleaned the tub area?  Bonus a &gt;Swimming pool.. LMAO.. sorry but floating plastic bags and green with  algae growth,is not my idea of a nice cool dip! Continental breakfast was  a caraffe of juice a coffee pot and two covered trays of plastic wrapped pastrys.. &lt;age unknown!? .Pay about $10 more per night and  there is aplace right next door/behind that was very reasonable rate.. Can't hurt, or be much less clean!!  Good notes.. Close proximity to  Sea Wall and walking the beach front.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Dilip Z, Owner at Motel 6 Galveston - Seawall, responded to this reviewResponded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2012</t>
+  </si>
+  <si>
+    <t>Some concerns of the establishment about 3 blocks from the Sea Wall of Galveston.  I can see the reviews written beside mine as I type this statement and see they mirror my concerns very well! Not a good sign, for a nice building .Firstly , should have relised and gone elsewhere, was the very heavy curry smell on entering the reception and kids watching a TV  of Famiy Guy behind the counter. The sign hanging outside wa the draw card.. at $29.99 per night  it was almost unbeatable...if it was nicer it would be packed!! Starting off with the poor carpet conditions, looks like a person had gotten sick  and they never cleaned the carpet? Water taps loose , ipitted rusted and leaking and gotta love the sandpaper towels. Behind  the bed side tables, were filthy with dust,dirt and not certian of what else. Bathroom tiles wer dirty and the bath/shower floor was all wet  on arival, as if they had had a shower  and not cleaned the tub area?  Bonus a &gt;Swimming pool.. LMAO.. sorry but floating plastic bags and green with  algae growth,is not my idea of a nice cool dip! Continental breakfast was  a caraffe of juice a coffee pot and two covered trays of plastic wrapped pastrys.. &lt;age unknown!? .Pay about $10 more per night and  there is aplace right next door/behind that was very reasonable rate.. Can't hurt, or be much less clean!!  Good notes.....Some concerns of the establishment about 3 blocks from the Sea Wall of Galveston.  I can see the reviews written beside mine as I type this statement and see they mirror my concerns very well! Not a good sign, for a nice building .Firstly , should have relised and gone elsewhere, was the very heavy curry smell on entering the reception and kids watching a TV  of Famiy Guy behind the counter. The sign hanging outside wa the draw card.. at $29.99 per night  it was almost unbeatable...if it was nicer it would be packed!! Starting off with the poor carpet conditions, looks like a person had gotten sick  and they never cleaned the carpet? Water taps loose , ipitted rusted and leaking and gotta love the sandpaper towels. Behind  the bed side tables, were filthy with dust,dirt and not certian of what else. Bathroom tiles wer dirty and the bath/shower floor was all wet  on arival, as if they had had a shower  and not cleaned the tub area?  Bonus a &gt;Swimming pool.. LMAO.. sorry but floating plastic bags and green with  algae growth,is not my idea of a nice cool dip! Continental breakfast was  a caraffe of juice a coffee pot and two covered trays of plastic wrapped pastrys.. &lt;age unknown!? .Pay about $10 more per night and  there is aplace right next door/behind that was very reasonable rate.. Can't hurt, or be much less clean!!  Good notes.. Close proximity to  Sea Wall and walking the beach front.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r121607666-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
@@ -964,6 +1483,42 @@
 Pillows on the beds were a joke.  They were flat as pancakes - almost literally.  Even stacking two...It could have been worse, but it was late and I was desperate.  The room felt humid.  I realize it is near the ocean but the room had air conditioning, not a swamp cooler.  The bathroom floor was grimy along the sides, making it obvious that if the floor is every actually mopped, it is just a quick once-over and there was enough grime on the floor behind the door to make it clear that no one mops back there.  There was partially-dried urine on the toilet seat and lid.  It did not come from us.  The floor in the bathroom was just gross.  You could tell it hadn't been cleaned after the last people were there.  Straightened, yes.  Mopped?  No.  There was mildew along the bottom of the shower curtain.  The entire room - especially the bathroom - grossed me out enough that I made my kids wear their flip flops, even in the shower.  My littlest didn't wear her shoes the next morning and her feet were filthy afterward!  It looked like she had been walking barefoot on the sidewalk rather than in a motel room.  I snapped a photo just as we stepped out of the door.  In the photo we're on the walkway out front but the filth on her feet came from the room, not the walkway.Pillows on the beds were a joke.  They were flat as pancakes - almost literally.  Even stacking two wasn't enough, and I am not one that likes very fluffy pillows.  The sign in the lobby says that the lobby hours are from 6am-8pm (I think it's 8pm..I KNOW it says 6 a.m.).  When I tried to come turn in our room key card at 7:45, the doors were locked and there was no one in sight at the counter.  Even knocking didn't bring anyone to the door.  We wound up coming back two hours later to check out.  Good thing we didn't have to leave Galveston that day or we would have had issues.We will NEVER stay in this place again, unless it falls under new ownership.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r115341081-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>115341081</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>What is that smell?</t>
+  </si>
+  <si>
+    <t>The location of the hotel is great, just a block or two from West Beach. Next to a grocery store (Randell's), a block or so from Walgreen's and CVS.Upon entering our room, the carpet felt damp and the room was fairly musty. When I sat on the bed it smelled like dirty butt - no other way to describe it. It was better once the comforter was off the  bed, but the bedding was still not fresh smelling.The toilet paper was damp to the touch. The toilet seat was stained (so much so that I thought it was filthy). The toilet itself was dirty. The towels were as rough as sandpaper and smelled musty.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location of the hotel is great, just a block or two from West Beach. Next to a grocery store (Randell's), a block or so from Walgreen's and CVS.Upon entering our room, the carpet felt damp and the room was fairly musty. When I sat on the bed it smelled like dirty butt - no other way to describe it. It was better once the comforter was off the  bed, but the bedding was still not fresh smelling.The toilet paper was damp to the touch. The toilet seat was stained (so much so that I thought it was filthy). The toilet itself was dirty. The towels were as rough as sandpaper and smelled musty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r114606213-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>114606213</t>
+  </si>
+  <si>
+    <t>06/21/2011</t>
+  </si>
+  <si>
+    <t>Worst hotel I've ever stayed in</t>
+  </si>
+  <si>
+    <t>At $100 a night, I expect more. When I arrived, the light outside my door was burnt out. When I walked into the room, it was cold so I went to turn down the AC. The control knob was broken. The only options were on or off. When it was time to sleep, I realized the light on the far side of the bed was broken. It would not turn off. I had to sleep with it on. In the morning, after a shower, I learned that the hair dryer was broken also. On top of all this, the room was not very clean and there were multiple stains on the carpet and chair. This hotel would not be worth it at half the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>At $100 a night, I expect more. When I arrived, the light outside my door was burnt out. When I walked into the room, it was cold so I went to turn down the AC. The control knob was broken. The only options were on or off. When it was time to sleep, I realized the light on the far side of the bed was broken. It would not turn off. I had to sleep with it on. In the morning, after a shower, I learned that the hair dryer was broken also. On top of all this, the room was not very clean and there were multiple stains on the carpet and chair. This hotel would not be worth it at half the price.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r89450573-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -1025,6 +1580,45 @@
   </si>
   <si>
     <t>We selected this hotel based on a previous stay that we were very pleased with.  However, we were very disappointed with the current conditions of this hotel.  The bathroom needs a thorough cleaning and the toilet seat needs to be replaced.  We requested a non smoking room with a balcony.  Clearly, this room had guests who had smoked and there are no rooms with private balconies.  This is a misrepresentation of the reservation process.  The refrigerator did not work at all.  The overall outdoor maintenance is poor.  The continental breakfast only offered coffee, muffins, and sweet rolls.  Most continental breakfasts include a choice of juices and a variety of fruit and cereals.  We will not stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r19113513-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>19113513</t>
+  </si>
+  <si>
+    <t>08/19/2008</t>
+  </si>
+  <si>
+    <t>Disgusting Hotel - America's Best Value Inn &amp; Suites Galveston</t>
+  </si>
+  <si>
+    <t>We decided to spend the night in Galveston before our cruise.  The prices were quite high for this particular night, but we settled on this property because it was $206 inclusive for the night and the pictures looked good on the internet.  We figured we'd spend a little more and for this price we would have a nice room.  NOT!  The windows outside of the so-called "Suite" were covered in dirt that looked as if it had been there from the beginning of time.  We walked into the room and were disgusted.  The smoke detector was laying next to the TV and the wires were sticking out of the ceiling.  The beds looked like something you would find at a cheap motel in the early 80s and the room was just filthy.  Don't eexpect cable either.  We got a grand total of about 5 channels.  The hotel shares a parking lot with a shopping center and has a view of a cemetary.Don't be decieved by the lovely lobby.  That is the picture you see on the internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>We decided to spend the night in Galveston before our cruise.  The prices were quite high for this particular night, but we settled on this property because it was $206 inclusive for the night and the pictures looked good on the internet.  We figured we'd spend a little more and for this price we would have a nice room.  NOT!  The windows outside of the so-called "Suite" were covered in dirt that looked as if it had been there from the beginning of time.  We walked into the room and were disgusted.  The smoke detector was laying next to the TV and the wires were sticking out of the ceiling.  The beds looked like something you would find at a cheap motel in the early 80s and the room was just filthy.  Don't eexpect cable either.  We got a grand total of about 5 channels.  The hotel shares a parking lot with a shopping center and has a view of a cemetary.Don't be decieved by the lovely lobby.  That is the picture you see on the internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r18342043-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>18342043</t>
+  </si>
+  <si>
+    <t>07/28/2008</t>
+  </si>
+  <si>
+    <t>Nasty place!  Bedbugs!</t>
+  </si>
+  <si>
+    <t>I made a reservation here because it was affordable (about $110 for a Friday night).  The lobby was nice, but on the way to my room I had second thoughts.  The door to the room was rusty; the window was covered in grime and looked like it had never been cleaned.  My boyfriend suggested we look under the mattress for evidence of bedbugs, and wouldn't you know, we saw three of the little buggers!  The mattress was stained with bedbug droppings, the comforter was stained, and the A/C wasn't on, so the room was very hot and humid.  It was nauseating.  I immediately called the front desk clerk to tell her that we would not be staying there, and she didn't seem surprised at all.  What a disgusting, filthy hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>I made a reservation here because it was affordable (about $110 for a Friday night).  The lobby was nice, but on the way to my room I had second thoughts.  The door to the room was rusty; the window was covered in grime and looked like it had never been cleaned.  My boyfriend suggested we look under the mattress for evidence of bedbugs, and wouldn't you know, we saw three of the little buggers!  The mattress was stained with bedbug droppings, the comforter was stained, and the A/C wasn't on, so the room was very hot and humid.  It was nauseating.  I immediately called the front desk clerk to tell her that we would not be staying there, and she didn't seem surprised at all.  What a disgusting, filthy hotel!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r17102048-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
@@ -1088,6 +1682,42 @@
     <t>February 2007</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r8408491-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>8408491</t>
+  </si>
+  <si>
+    <t>08/12/2007</t>
+  </si>
+  <si>
+    <t>Beware the Roaches!!!</t>
+  </si>
+  <si>
+    <t>I stayed here last week and was appalled at the conditions!! Let me start by saying that I am not one of those people who are quick to complain. I am relatively easy to please. This hotel was a huge disappointment. Upon arrival, our room's air conditioner was off, so we had to cool the room down after we got there. (Not pleasant in the middle of the summer!!) Our room smelled terrible. When we called down to ask if we could have our money back (within their 20 minutes alloted to do so) we were told that we couldn't get a refund to leave. Instead, the manager brought us a bottle of Febreeze.  There were roaches coming up out of our shower drain throughout the entire week. The water didn't drain either, which was gross considering there were wads of hair stuck in the drain. The breakfast consisted of one type of muffin and apple danishes (both cold) , along with a tub of Sunny Delight (not cold). I don't think that they ever clean the pool, considering the debris floating in it, sand in the bottom, and disgusting green color of the water. The bedspread was dingy, as well as the blanket underneath. I slept under just the sheet and hoped it was clean. We stayed there with friends and they were just as disgusted and disappointed in their room as we were. We checked out a day...I stayed here last week and was appalled at the conditions!! Let me start by saying that I am not one of those people who are quick to complain. I am relatively easy to please. This hotel was a huge disappointment. Upon arrival, our room's air conditioner was off, so we had to cool the room down after we got there. (Not pleasant in the middle of the summer!!) Our room smelled terrible. When we called down to ask if we could have our money back (within their 20 minutes alloted to do so) we were told that we couldn't get a refund to leave. Instead, the manager brought us a bottle of Febreeze.  There were roaches coming up out of our shower drain throughout the entire week. The water didn't drain either, which was gross considering there were wads of hair stuck in the drain. The breakfast consisted of one type of muffin and apple danishes (both cold) , along with a tub of Sunny Delight (not cold). I don't think that they ever clean the pool, considering the debris floating in it, sand in the bottom, and disgusting green color of the water. The bedspread was dingy, as well as the blanket underneath. I slept under just the sheet and hoped it was clean. We stayed there with friends and they were just as disgusted and disappointed in their room as we were. We checked out a day early even though we had already paid to stay there if that gives you any indication of how bad this motel was.  (Of course we couldn't get that money back either!) We will never stay here again!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>I stayed here last week and was appalled at the conditions!! Let me start by saying that I am not one of those people who are quick to complain. I am relatively easy to please. This hotel was a huge disappointment. Upon arrival, our room's air conditioner was off, so we had to cool the room down after we got there. (Not pleasant in the middle of the summer!!) Our room smelled terrible. When we called down to ask if we could have our money back (within their 20 minutes alloted to do so) we were told that we couldn't get a refund to leave. Instead, the manager brought us a bottle of Febreeze.  There were roaches coming up out of our shower drain throughout the entire week. The water didn't drain either, which was gross considering there were wads of hair stuck in the drain. The breakfast consisted of one type of muffin and apple danishes (both cold) , along with a tub of Sunny Delight (not cold). I don't think that they ever clean the pool, considering the debris floating in it, sand in the bottom, and disgusting green color of the water. The bedspread was dingy, as well as the blanket underneath. I slept under just the sheet and hoped it was clean. We stayed there with friends and they were just as disgusted and disappointed in their room as we were. We checked out a day...I stayed here last week and was appalled at the conditions!! Let me start by saying that I am not one of those people who are quick to complain. I am relatively easy to please. This hotel was a huge disappointment. Upon arrival, our room's air conditioner was off, so we had to cool the room down after we got there. (Not pleasant in the middle of the summer!!) Our room smelled terrible. When we called down to ask if we could have our money back (within their 20 minutes alloted to do so) we were told that we couldn't get a refund to leave. Instead, the manager brought us a bottle of Febreeze.  There were roaches coming up out of our shower drain throughout the entire week. The water didn't drain either, which was gross considering there were wads of hair stuck in the drain. The breakfast consisted of one type of muffin and apple danishes (both cold) , along with a tub of Sunny Delight (not cold). I don't think that they ever clean the pool, considering the debris floating in it, sand in the bottom, and disgusting green color of the water. The bedspread was dingy, as well as the blanket underneath. I slept under just the sheet and hoped it was clean. We stayed there with friends and they were just as disgusted and disappointed in their room as we were. We checked out a day early even though we had already paid to stay there if that gives you any indication of how bad this motel was.  (Of course we couldn't get that money back either!) We will never stay here again!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r7430219-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>7430219</t>
+  </si>
+  <si>
+    <t>04/23/2007</t>
+  </si>
+  <si>
+    <t>great for cruisers</t>
+  </si>
+  <si>
+    <t>I have stayed there twice for cruises. This is a Great place for the price (you cant find much cheaper in galveston). It is very clean and in a nice neighborhood. Dont expect anything fancy and there is not much breakfast but it is nice for a place to lay your head and the guy at the front desk was very nice.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r6046603-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
   </si>
   <si>
@@ -1137,6 +1767,54 @@
   </si>
   <si>
     <t>As a returning guest from years ago, I was very disappointed. The room smelled like smoke and was filthy. It now needs painting.There were stains on walls, the carpet was so dirty that we wore socks at all times. The tub backed up with water while showering, beds were hard and we never received extra pillows that we requested. Breakfeast was a joke and the staff was rude. Would not recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r3846741-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>3846741</t>
+  </si>
+  <si>
+    <t>09/05/2005</t>
+  </si>
+  <si>
+    <t>Reporting this Hotel to FEMA</t>
+  </si>
+  <si>
+    <t>I trust that you will try to visualize just how terrible a motel this place really is.  Here is our story. We had planned to drive to Galveston from Dallas and spend the night prior to leaving on a fantastic cruise on Carnival's Ecstacy.  
+We checked in at the front desk and we should have left by the appearance alone of the lobby, but we were tired and wanted to get a good nights sleep.  WE SHOULD HAVE CHECKED THE ROOM BEFORE PAYING!!! Once we found our room, the stench from a backed up sewer made you gasp and then we found bugs in the beds!!
+We immediately went back to the front office and asked politely at first for a refund. They said no!  Then we asked to speak to the manager and they said, no manager on the premise, but they would call him.  He said NO refund.  We kept insisting that the room was in no condition to be rented and again I asked for a refund.  It was then that we all realized that they had not given us a copy of our credit card slip we signed and they then refused to do that!  I immediately called Bank of America and they said that until the amount posted to our account they could not stop it from going through.  Only when we threatened to call the police did the manager somehow mysteriously appear and in...I trust that you will try to visualize just how terrible a motel this place really is.  Here is our story. We had planned to drive to Galveston from Dallas and spend the night prior to leaving on a fantastic cruise on Carnival's Ecstacy.  We checked in at the front desk and we should have left by the appearance alone of the lobby, but we were tired and wanted to get a good nights sleep.  WE SHOULD HAVE CHECKED THE ROOM BEFORE PAYING!!! Once we found our room, the stench from a backed up sewer made you gasp and then we found bugs in the beds!!We immediately went back to the front office and asked politely at first for a refund. They said no!  Then we asked to speak to the manager and they said, no manager on the premise, but they would call him.  He said NO refund.  We kept insisting that the room was in no condition to be rented and again I asked for a refund.  It was then that we all realized that they had not given us a copy of our credit card slip we signed and they then refused to do that!  I immediately called Bank of America and they said that until the amount posted to our account they could not stop it from going through.  Only when we threatened to call the police did the manager somehow mysteriously appear and in person, refused to give us our money back. He offered us another room, but seeing one of his rooms was enough for us.  We were charged $49.00 for an uninhabitable room, but it gets even better. We met Alfredo in the lobby who had fled his home in New Orleans and stopped to speakwith him about his tragedy.  Then we began to speak about the motel. They charged him $79.00 for his room, he had no clean towels, no clean linnen, no ice!  Needless to say, there was opportunity being taken advantage of these incredibly brave individuals and that is not fair!  We left this place and went next door where a sign was posted on the window:  "Special rates for residents of the Hurricane Katrina - $79.00"  When my sister went up to the desk, (we are both white) we asked for the room rate and were quoted only $49.00!!! I was ashamed and appalled and we drove on to our third motel.  Quality Inn across the street welcomed us and anyone else who needed a clean room for the evening for $54.00.  We booked 2 rooms and then shared with the manager what we had just experienced.  We were told it was against the law to discriminate due to race, but we had proof that it was happening all over the city of Galveston. I believe that this motel was totally unethical and they will be reported to anyone who will listen to my story.  Peace be to all.MoreShow less</t>
+  </si>
+  <si>
+    <t>I trust that you will try to visualize just how terrible a motel this place really is.  Here is our story. We had planned to drive to Galveston from Dallas and spend the night prior to leaving on a fantastic cruise on Carnival's Ecstacy.  
+We checked in at the front desk and we should have left by the appearance alone of the lobby, but we were tired and wanted to get a good nights sleep.  WE SHOULD HAVE CHECKED THE ROOM BEFORE PAYING!!! Once we found our room, the stench from a backed up sewer made you gasp and then we found bugs in the beds!!
+We immediately went back to the front office and asked politely at first for a refund. They said no!  Then we asked to speak to the manager and they said, no manager on the premise, but they would call him.  He said NO refund.  We kept insisting that the room was in no condition to be rented and again I asked for a refund.  It was then that we all realized that they had not given us a copy of our credit card slip we signed and they then refused to do that!  I immediately called Bank of America and they said that until the amount posted to our account they could not stop it from going through.  Only when we threatened to call the police did the manager somehow mysteriously appear and in...I trust that you will try to visualize just how terrible a motel this place really is.  Here is our story. We had planned to drive to Galveston from Dallas and spend the night prior to leaving on a fantastic cruise on Carnival's Ecstacy.  We checked in at the front desk and we should have left by the appearance alone of the lobby, but we were tired and wanted to get a good nights sleep.  WE SHOULD HAVE CHECKED THE ROOM BEFORE PAYING!!! Once we found our room, the stench from a backed up sewer made you gasp and then we found bugs in the beds!!We immediately went back to the front office and asked politely at first for a refund. They said no!  Then we asked to speak to the manager and they said, no manager on the premise, but they would call him.  He said NO refund.  We kept insisting that the room was in no condition to be rented and again I asked for a refund.  It was then that we all realized that they had not given us a copy of our credit card slip we signed and they then refused to do that!  I immediately called Bank of America and they said that until the amount posted to our account they could not stop it from going through.  Only when we threatened to call the police did the manager somehow mysteriously appear and in person, refused to give us our money back. He offered us another room, but seeing one of his rooms was enough for us.  We were charged $49.00 for an uninhabitable room, but it gets even better. We met Alfredo in the lobby who had fled his home in New Orleans and stopped to speakwith him about his tragedy.  Then we began to speak about the motel. They charged him $79.00 for his room, he had no clean towels, no clean linnen, no ice!  Needless to say, there was opportunity being taken advantage of these incredibly brave individuals and that is not fair!  We left this place and went next door where a sign was posted on the window:  "Special rates for residents of the Hurricane Katrina - $79.00"  When my sister went up to the desk, (we are both white) we asked for the room rate and were quoted only $49.00!!! I was ashamed and appalled and we drove on to our third motel.  Quality Inn across the street welcomed us and anyone else who needed a clean room for the evening for $54.00.  We booked 2 rooms and then shared with the manager what we had just experienced.  We were told it was against the law to discriminate due to race, but we had proof that it was happening all over the city of Galveston. I believe that this motel was totally unethical and they will be reported to anyone who will listen to my story.  Peace be to all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r3605159-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>3605159</t>
+  </si>
+  <si>
+    <t>06/21/2005</t>
+  </si>
+  <si>
+    <t>Ok at Best</t>
+  </si>
+  <si>
+    <t>Location - 1 block from the beach located in a strip center.  Ok if you don't mind that sort of thing. 
+Suite - Well that's a joke.  Adding a small table and 2 chairs does not a suite make.  Close your eyes and think average size motel with 2 beds.  That's what this is.  
+Don't expect customer service from these folks. We arrived around 2 and check in time is 3 pm.  Ordinarily when I've stayed in hotels/motels if you arrive a little early they'll check to see if they have any rooms available.  Not these folks.  Check in time is 3 pm and they mean it.  You can decide for yourself if they had rooms available.  All I can tell you is that the maids had pushed their way into our room before we had checked out at 9 am even though check out time was 11 am.  You decide.
+When I called the front desk for an iron and ironing board, they said "you have to come get it".  Now don't really have a problem with going to get it, it was just the way it was said.  They could have tried "We have one available but in an effort to keep the prices reasonable, we don't have enough staff on to bring it to you."  Same thing, but it would have gone over much better. 
+The pool and the room was clean.  The shower curtain seemed to...Location - 1 block from the beach located in a strip center.  Ok if you don't mind that sort of thing. Suite - Well that's a joke.  Adding a small table and 2 chairs does not a suite make.  Close your eyes and think average size motel with 2 beds.  That's what this is.  Don't expect customer service from these folks. We arrived around 2 and check in time is 3 pm.  Ordinarily when I've stayed in hotels/motels if you arrive a little early they'll check to see if they have any rooms available.  Not these folks.  Check in time is 3 pm and they mean it.  You can decide for yourself if they had rooms available.  All I can tell you is that the maids had pushed their way into our room before we had checked out at 9 am even though check out time was 11 am.  You decide.When I called the front desk for an iron and ironing board, they said "you have to come get it".  Now don't really have a problem with going to get it, it was just the way it was said.  They could have tried "We have one available but in an effort to keep the prices reasonable, we don't have enough staff on to bring it to you."  Same thing, but it would have gone over much better. The pool and the room was clean.  The shower curtain seemed to be missing the plastic layer.  It was just a flimsy curtain with no plastic to stop it from getting on the floor.Breakfast was a joke 2 types of muffins, 2 types of danishes (gas station types - still in the package) and Sunny D.  That's it.  No cereal or milk for the kids.  No real orange juice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location - 1 block from the beach located in a strip center.  Ok if you don't mind that sort of thing. 
+Suite - Well that's a joke.  Adding a small table and 2 chairs does not a suite make.  Close your eyes and think average size motel with 2 beds.  That's what this is.  
+Don't expect customer service from these folks. We arrived around 2 and check in time is 3 pm.  Ordinarily when I've stayed in hotels/motels if you arrive a little early they'll check to see if they have any rooms available.  Not these folks.  Check in time is 3 pm and they mean it.  You can decide for yourself if they had rooms available.  All I can tell you is that the maids had pushed their way into our room before we had checked out at 9 am even though check out time was 11 am.  You decide.
+When I called the front desk for an iron and ironing board, they said "you have to come get it".  Now don't really have a problem with going to get it, it was just the way it was said.  They could have tried "We have one available but in an effort to keep the prices reasonable, we don't have enough staff on to bring it to you."  Same thing, but it would have gone over much better. 
+The pool and the room was clean.  The shower curtain seemed to...Location - 1 block from the beach located in a strip center.  Ok if you don't mind that sort of thing. Suite - Well that's a joke.  Adding a small table and 2 chairs does not a suite make.  Close your eyes and think average size motel with 2 beds.  That's what this is.  Don't expect customer service from these folks. We arrived around 2 and check in time is 3 pm.  Ordinarily when I've stayed in hotels/motels if you arrive a little early they'll check to see if they have any rooms available.  Not these folks.  Check in time is 3 pm and they mean it.  You can decide for yourself if they had rooms available.  All I can tell you is that the maids had pushed their way into our room before we had checked out at 9 am even though check out time was 11 am.  You decide.When I called the front desk for an iron and ironing board, they said "you have to come get it".  Now don't really have a problem with going to get it, it was just the way it was said.  They could have tried "We have one available but in an effort to keep the prices reasonable, we don't have enough staff on to bring it to you."  Same thing, but it would have gone over much better. The pool and the room was clean.  The shower curtain seemed to be missing the plastic layer.  It was just a flimsy curtain with no plastic to stop it from getting on the floor.Breakfast was a joke 2 types of muffins, 2 types of danishes (gas station types - still in the package) and Sunny D.  That's it.  No cereal or milk for the kids.  No real orange juice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r3503835-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
@@ -1191,6 +1869,42 @@
   </si>
   <si>
     <t>We stayed one night.  Room very clean, but fairly non-frill.  Good price for just a place to lay your head.  No complaints, front desk staff were nice/efficient.  Long term stays I would seek other options, but for overnight..right on the money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r1257200-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>1257200</t>
+  </si>
+  <si>
+    <t>08/22/2003</t>
+  </si>
+  <si>
+    <t>Ok for the money</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because it was new and reasonable. The hotel staff was nice and the room was pretty large. I wasn't too impressed with the bathroom (toilet and bathtub area was very small). The a/c, tv and fridge worked fine, didn't use the microwave. The beach is a little far for a walk, but if you are full of energy you can make it. If you are looking for something reasonable and not too trashed out yet - then this is the place. If you are looking for higher class hotel then don't stay here, but if you want a place where you aren't afraid to track in sand and wet suits - go ahead and book a room!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because it was new and reasonable. The hotel staff was nice and the room was pretty large. I wasn't too impressed with the bathroom (toilet and bathtub area was very small). The a/c, tv and fridge worked fine, didn't use the microwave. The beach is a little far for a walk, but if you are full of energy you can make it. If you are looking for something reasonable and not too trashed out yet - then this is the place. If you are looking for higher class hotel then don't stay here, but if you want a place where you aren't afraid to track in sand and wet suits - go ahead and book a room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55879-d277887-r1228631-Motel_6_Galveston_Seawall-Galveston_Galveston_Island_Texas.html</t>
+  </si>
+  <si>
+    <t>1228631</t>
+  </si>
+  <si>
+    <t>08/14/2003</t>
+  </si>
+  <si>
+    <t>New Hotel, but nothing fancy</t>
+  </si>
+  <si>
+    <t>This hotel is new and that is why I choose to stay there. You could still smell the fresh paint. No cigarette burns on the vanity, comfortable beds and the carpet isn't gross yet from the sand and salt....give it a year though and it will be as all hotels that have outside entrances to the rooms. It is a regular hotel room with a mini-fridge and microwave-I guess that is what makes it a suite?? The continental breakfast is the typical donuts, orange substance and coffee. The hotel is really only a block from the seawall, but not the area where anything is. There is a fishing peir and small beach area, but you have to walk another couple of blocks to get to the nice beach area. Lubys is in the same parking lot and a grocery store across the street. Staff nice enough and room very clean...which is what matters most to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is new and that is why I choose to stay there. You could still smell the fresh paint. No cigarette burns on the vanity, comfortable beds and the carpet isn't gross yet from the sand and salt....give it a year though and it will be as all hotels that have outside entrances to the rooms. It is a regular hotel room with a mini-fridge and microwave-I guess that is what makes it a suite?? The continental breakfast is the typical donuts, orange substance and coffee. The hotel is really only a block from the seawall, but not the area where anything is. There is a fishing peir and small beach area, but you have to walk another couple of blocks to get to the nice beach area. Lubys is in the same parking lot and a grocery store across the street. Staff nice enough and room very clean...which is what matters most to me.More</t>
   </si>
 </sst>
 </file>
@@ -1725,7 +2439,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1839,7 +2553,7 @@
         <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
@@ -1896,7 +2610,7 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>73</v>
@@ -1904,18 +2618,12 @@
       <c r="O5" t="s">
         <v>67</v>
       </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1959,35 +2667,27 @@
         <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>82</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2003,52 +2703,52 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>82</v>
-      </c>
-      <c r="X7" t="s">
-        <v>83</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2064,52 +2764,58 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>95</v>
-      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2125,46 +2831,46 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2172,7 +2878,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -2188,46 +2894,54 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>110</v>
-      </c>
-      <c r="O10" t="s">
-        <v>67</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
       <c r="Y10" t="s">
         <v>111</v>
       </c>
@@ -2266,10 +2980,10 @@
         <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
         <v>67</v>
@@ -2283,10 +2997,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2302,52 +3020,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>120</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>121</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>122</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>123</v>
       </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
       <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -2363,7 +3087,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2372,37 +3096,35 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
         <v>67</v>
       </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2410,7 +3132,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2426,7 +3148,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2435,39 +3157,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>132</v>
       </c>
-      <c r="K14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>135</v>
-      </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -2483,7 +3209,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2492,39 +3218,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2540,7 +3272,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2549,22 +3281,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -2581,7 +3313,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
@@ -2597,7 +3329,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2606,39 +3338,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
-      <c r="P17" t="s"/>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -2654,7 +3390,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2663,25 +3399,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2690,14 +3426,16 @@
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -2713,7 +3451,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2722,45 +3460,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -2776,7 +3508,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2785,39 +3517,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -2833,7 +3569,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2842,37 +3578,37 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>3</v>
       </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2880,7 +3616,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
@@ -2896,7 +3632,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2905,33 +3641,37 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s">
         <v>67</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2939,7 +3679,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
@@ -2955,7 +3695,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2964,22 +3704,22 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
@@ -2987,16 +3727,20 @@
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
@@ -3012,7 +3756,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3021,25 +3765,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3053,7 +3797,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
@@ -3069,7 +3813,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3078,22 +3822,22 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
         <v>67</v>
@@ -3110,7 +3854,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
@@ -3126,7 +3870,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3135,38 +3879,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O26" t="s">
         <v>67</v>
       </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -3189,7 +3927,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3198,43 +3936,39 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
@@ -3250,7 +3984,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3259,25 +3993,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K28" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3289,7 +4023,7 @@
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3297,7 +4031,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29">
@@ -3313,7 +4047,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3322,45 +4056,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+      <c r="N29" t="s">
+        <v>231</v>
+      </c>
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
@@ -3376,7 +4104,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3385,49 +4113,41 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>3</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
@@ -3443,7 +4163,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3452,34 +4172,30 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
         <v>2</v>
-      </c>
-      <c r="N31" t="s">
-        <v>232</v>
-      </c>
-      <c r="O31" t="s">
-        <v>67</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
@@ -3494,7 +4210,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
@@ -3510,7 +4226,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3519,45 +4235,39 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="N32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O32" t="s">
+        <v>67</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
@@ -3573,7 +4283,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3582,41 +4292,35 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s">
+        <v>255</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>249</v>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>250</v>
-      </c>
       <c r="O33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3624,7 +4328,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
@@ -3640,7 +4344,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3649,45 +4353,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
         <v>253</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35">
@@ -3703,7 +4401,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3712,41 +4410,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="J35" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K35" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L35" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3754,7 +4448,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
@@ -3770,7 +4464,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3779,34 +4473,30 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="J36" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K36" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L36" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>1</v>
@@ -3817,7 +4507,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -3833,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3842,38 +4532,34 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J37" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K37" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L37" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
         <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>2</v>
@@ -3884,7 +4570,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
@@ -3900,7 +4586,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3909,16 +4595,16 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -3929,29 +4615,19 @@
       <c r="O38" t="s">
         <v>53</v>
       </c>
-      <c r="P38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1</v>
-      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
@@ -3967,7 +4643,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3976,45 +4652,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+      <c r="N39" t="s">
+        <v>291</v>
+      </c>
+      <c r="O39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
@@ -4030,7 +4700,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4039,49 +4709,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="J40" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O40" t="s">
-        <v>67</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41">
@@ -4097,7 +4757,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4106,49 +4766,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O41" t="s">
-        <v>97</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42">
@@ -4164,7 +4814,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4173,45 +4823,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="J42" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K42" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s">
         <v>67</v>
       </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>1</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43">
@@ -4227,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4236,31 +4880,31 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>310</v>
-      </c>
-      <c r="O43" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4918,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44">
@@ -4290,7 +4934,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4299,38 +4943,34 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J44" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
       </c>
       <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
         <v>3</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2</v>
-      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
         <v>1</v>
@@ -4341,7 +4981,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45">
@@ -4357,7 +4997,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4366,41 +5006,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J45" t="s">
+        <v>325</v>
+      </c>
+      <c r="K45" t="s">
+        <v>326</v>
+      </c>
+      <c r="L45" t="s">
+        <v>327</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
         <v>321</v>
-      </c>
-      <c r="K45" t="s">
-        <v>322</v>
-      </c>
-      <c r="L45" t="s">
-        <v>323</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="s">
-        <v>324</v>
       </c>
       <c r="O45" t="s">
         <v>67</v>
       </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4408,7 +5042,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
@@ -4424,7 +5058,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4433,25 +5067,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4459,12 +5093,8 @@
       <c r="Q46" t="n">
         <v>1</v>
       </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>2</v>
@@ -4520,20 +5150,16 @@
       <c r="O47" t="s">
         <v>67</v>
       </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
         <v>2</v>
       </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
@@ -4588,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
         <v>1</v>
@@ -4603,7 +5229,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49">
@@ -4619,50 +5245,46 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>345</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
         <v>346</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>347</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>348</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>349</v>
       </c>
-      <c r="L49" t="s">
-        <v>350</v>
-      </c>
       <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="s">
-        <v>351</v>
-      </c>
-      <c r="O49" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4670,7 +5292,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
@@ -4686,34 +5308,34 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" t="s">
         <v>352</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>353</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>354</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
         <v>355</v>
       </c>
-      <c r="L50" t="s">
-        <v>356</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="s">
-        <v>357</v>
-      </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -4722,14 +5344,14 @@
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4737,7 +5359,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="51">
@@ -4753,44 +5375,58 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>357</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>358</v>
+      </c>
+      <c r="J51" t="s">
         <v>359</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>360</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>361</v>
-      </c>
-      <c r="K51" t="s">
-        <v>362</v>
-      </c>
-      <c r="L51" t="s">
-        <v>363</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="N51" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52">
@@ -4806,38 +5442,44 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
         <v>364</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>365</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>366</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>367</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
         <v>368</v>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+      <c r="O52" t="s">
+        <v>108</v>
+      </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
-      <c r="R52" t="s"/>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
       <c r="S52" t="n">
         <v>1</v>
       </c>
@@ -4851,7 +5493,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53">
@@ -4867,7 +5509,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4876,35 +5518,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J53" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>375</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54">
@@ -4920,7 +5576,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -4929,35 +5585,45 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J54" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K54" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55">
@@ -4973,7 +5639,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -4982,35 +5648,2427 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56" t="s">
+        <v>391</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" t="s">
+        <v>395</v>
+      </c>
+      <c r="L57" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>397</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>398</v>
+      </c>
+      <c r="J58" t="s">
+        <v>399</v>
+      </c>
+      <c r="K58" t="s">
+        <v>400</v>
+      </c>
+      <c r="L58" t="s">
+        <v>401</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>402</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>404</v>
+      </c>
+      <c r="J59" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" t="s">
+        <v>406</v>
+      </c>
+      <c r="L59" t="s">
+        <v>407</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>408</v>
+      </c>
+      <c r="O59" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>409</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>410</v>
+      </c>
+      <c r="J60" t="s">
+        <v>411</v>
+      </c>
+      <c r="K60" t="s">
+        <v>412</v>
+      </c>
+      <c r="L60" t="s">
+        <v>413</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>415</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>416</v>
+      </c>
+      <c r="J61" t="s">
+        <v>417</v>
+      </c>
+      <c r="K61" t="s">
+        <v>418</v>
+      </c>
+      <c r="L61" t="s">
+        <v>419</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>420</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" t="s">
+        <v>424</v>
+      </c>
+      <c r="L62" t="s">
+        <v>425</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>426</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>427</v>
+      </c>
+      <c r="J63" t="s">
+        <v>428</v>
+      </c>
+      <c r="K63" t="s">
+        <v>429</v>
+      </c>
+      <c r="L63" t="s">
+        <v>430</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>420</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>431</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>432</v>
+      </c>
+      <c r="J64" t="s">
+        <v>433</v>
+      </c>
+      <c r="K64" t="s">
+        <v>434</v>
+      </c>
+      <c r="L64" t="s">
+        <v>435</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>420</v>
+      </c>
+      <c r="O64" t="s">
+        <v>67</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>437</v>
+      </c>
+      <c r="J65" t="s">
+        <v>438</v>
+      </c>
+      <c r="K65" t="s">
+        <v>439</v>
+      </c>
+      <c r="L65" t="s">
+        <v>440</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>443</v>
+      </c>
+      <c r="J66" t="s">
+        <v>444</v>
+      </c>
+      <c r="K66" t="s">
+        <v>445</v>
+      </c>
+      <c r="L66" t="s">
+        <v>446</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>447</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>450</v>
+      </c>
+      <c r="J67" t="s">
+        <v>451</v>
+      </c>
+      <c r="K67" t="s">
+        <v>452</v>
+      </c>
+      <c r="L67" t="s">
+        <v>453</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>454</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" t="s">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s">
+        <v>460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>462</v>
+      </c>
+      <c r="X68" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>465</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>466</v>
+      </c>
+      <c r="J69" t="s">
+        <v>467</v>
+      </c>
+      <c r="K69" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69" t="s">
+        <v>469</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>470</v>
+      </c>
+      <c r="O69" t="s">
+        <v>138</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>471</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>472</v>
+      </c>
+      <c r="J70" t="s">
+        <v>473</v>
+      </c>
+      <c r="K70" t="s">
+        <v>474</v>
+      </c>
+      <c r="L70" t="s">
+        <v>475</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>476</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>478</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>479</v>
+      </c>
+      <c r="J71" t="s">
+        <v>480</v>
+      </c>
+      <c r="K71" t="s">
+        <v>481</v>
+      </c>
+      <c r="L71" t="s">
+        <v>482</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>483</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>485</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>486</v>
+      </c>
+      <c r="J72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K72" t="s">
+        <v>488</v>
+      </c>
+      <c r="L72" t="s">
+        <v>489</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>491</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>492</v>
+      </c>
+      <c r="J73" t="s">
+        <v>493</v>
+      </c>
+      <c r="K73" t="s">
+        <v>494</v>
+      </c>
+      <c r="L73" t="s">
+        <v>495</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>497</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>498</v>
+      </c>
+      <c r="J74" t="s">
+        <v>499</v>
+      </c>
+      <c r="K74" t="s">
+        <v>500</v>
+      </c>
+      <c r="L74" t="s">
+        <v>501</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>502</v>
+      </c>
+      <c r="O74" t="s">
+        <v>67</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>504</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>505</v>
+      </c>
+      <c r="J75" t="s">
+        <v>506</v>
+      </c>
+      <c r="K75" t="s">
+        <v>507</v>
+      </c>
+      <c r="L75" t="s">
+        <v>508</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>509</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>511</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>512</v>
+      </c>
+      <c r="J76" t="s">
+        <v>513</v>
+      </c>
+      <c r="K76" t="s">
+        <v>514</v>
+      </c>
+      <c r="L76" t="s">
+        <v>515</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>516</v>
+      </c>
+      <c r="O76" t="s">
+        <v>67</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>518</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>519</v>
+      </c>
+      <c r="J77" t="s">
+        <v>520</v>
+      </c>
+      <c r="K77" t="s">
+        <v>521</v>
+      </c>
+      <c r="L77" t="s">
+        <v>522</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>523</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>525</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>526</v>
+      </c>
+      <c r="J78" t="s">
+        <v>527</v>
+      </c>
+      <c r="K78" t="s">
+        <v>528</v>
+      </c>
+      <c r="L78" t="s">
+        <v>529</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>523</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>531</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" t="s">
+        <v>533</v>
+      </c>
+      <c r="K79" t="s">
+        <v>534</v>
+      </c>
+      <c r="L79" t="s">
+        <v>535</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>536</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>539</v>
+      </c>
+      <c r="J80" t="s">
+        <v>540</v>
+      </c>
+      <c r="K80" t="s">
+        <v>541</v>
+      </c>
+      <c r="L80" t="s">
+        <v>542</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>545</v>
+      </c>
+      <c r="J81" t="s">
+        <v>546</v>
+      </c>
+      <c r="K81" t="s">
+        <v>547</v>
+      </c>
+      <c r="L81" t="s">
+        <v>548</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>549</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>550</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>551</v>
+      </c>
+      <c r="J82" t="s">
+        <v>552</v>
+      </c>
+      <c r="K82" t="s">
+        <v>553</v>
+      </c>
+      <c r="L82" t="s">
+        <v>554</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>555</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>557</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>558</v>
+      </c>
+      <c r="J83" t="s">
+        <v>559</v>
+      </c>
+      <c r="K83" t="s">
+        <v>560</v>
+      </c>
+      <c r="L83" t="s">
+        <v>561</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>562</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>563</v>
+      </c>
+      <c r="J84" t="s">
+        <v>564</v>
+      </c>
+      <c r="K84" t="s">
+        <v>565</v>
+      </c>
+      <c r="L84" t="s">
+        <v>566</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>567</v>
+      </c>
+      <c r="O84" t="s">
+        <v>67</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>569</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>570</v>
+      </c>
+      <c r="J85" t="s">
+        <v>571</v>
+      </c>
+      <c r="K85" t="s">
+        <v>572</v>
+      </c>
+      <c r="L85" t="s">
+        <v>573</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>574</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>575</v>
+      </c>
+      <c r="J86" t="s">
+        <v>576</v>
+      </c>
+      <c r="K86" t="s">
+        <v>577</v>
+      </c>
+      <c r="L86" t="s">
+        <v>578</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>579</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>580</v>
+      </c>
+      <c r="J87" t="s">
+        <v>581</v>
+      </c>
+      <c r="K87" t="s">
+        <v>582</v>
+      </c>
+      <c r="L87" t="s">
+        <v>583</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>585</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>586</v>
+      </c>
+      <c r="J88" t="s">
+        <v>587</v>
+      </c>
+      <c r="K88" t="s">
+        <v>588</v>
+      </c>
+      <c r="L88" t="s">
+        <v>589</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>591</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>592</v>
+      </c>
+      <c r="J89" t="s">
+        <v>593</v>
+      </c>
+      <c r="K89" t="s">
+        <v>594</v>
+      </c>
+      <c r="L89" t="s">
+        <v>595</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>596</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>597</v>
+      </c>
+      <c r="J90" t="s">
+        <v>598</v>
+      </c>
+      <c r="K90" t="s">
+        <v>599</v>
+      </c>
+      <c r="L90" t="s">
+        <v>600</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>602</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>603</v>
+      </c>
+      <c r="J91" t="s">
+        <v>604</v>
+      </c>
+      <c r="K91" t="s">
+        <v>605</v>
+      </c>
+      <c r="L91" t="s">
+        <v>606</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>607</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>608</v>
+      </c>
+      <c r="J92" t="s">
+        <v>609</v>
+      </c>
+      <c r="K92" t="s">
+        <v>610</v>
+      </c>
+      <c r="L92" t="s">
+        <v>611</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>46760</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>613</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>614</v>
+      </c>
+      <c r="J93" t="s">
+        <v>615</v>
+      </c>
+      <c r="K93" t="s">
+        <v>616</v>
+      </c>
+      <c r="L93" t="s">
+        <v>617</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
